--- a/CTaa19-20/progetto-esame/appunti/elenco tag.xlsx
+++ b/CTaa19-20/progetto-esame/appunti/elenco tag.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dariaspampinato/Desktop/Dati_Daria/lavoro/progetti/in corso e approvati/BellinInRete/file di lavoro/lettere digitali/GitHub-BellinInRete/appunti/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EB981A-29FA-214C-A132-D3FD24D7289E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E3863E-96A9-7447-87F2-A46F26963E11}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="460" windowWidth="28680" windowHeight="12000" activeTab="2" xr2:uid="{5510FEBE-09B3-3649-8649-FC5262EEEEE9}"/>
+    <workbookView xWindow="100" yWindow="460" windowWidth="28680" windowHeight="13360" activeTab="2" xr2:uid="{5510FEBE-09B3-3649-8649-FC5262EEEEE9}"/>
   </bookViews>
   <sheets>
     <sheet name="LL1.xx_teiHeader" sheetId="3" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1187" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="709">
   <si>
     <t>tag TEI XML</t>
   </si>
@@ -473,9 +473,6 @@
     <t>when</t>
   </si>
   <si>
-    <t>data di nascita</t>
-  </si>
-  <si>
     <t>aaaa-mm-gg</t>
   </si>
   <si>
@@ -495,9 +492,6 @@
   </si>
   <si>
     <t>sigla internazionale dello stato</t>
-  </si>
-  <si>
-    <t>data di morte</t>
   </si>
   <si>
     <t>#xx</t>
@@ -8251,6 +8245,94 @@
   </si>
   <si>
     <t>testo chiaramente scorretto (nella forma o nell'informazione riportata)</t>
+  </si>
+  <si>
+    <t>unknown</t>
+  </si>
+  <si>
+    <t>se non si conosce la data</t>
+  </si>
+  <si>
+    <t>attributo presente solo se non si conosce la data (in alternativa agli altri 2)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type </t>
+  </si>
+  <si>
+    <r>
+      <t>data di nascita |</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vuoto/milestone</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>strutturato</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> |</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vuoto/milestone</t>
+    </r>
+  </si>
+  <si>
+    <t>attributo presente solo se non si conosce la data (in alternativa all'altro)</t>
+  </si>
+  <si>
+    <r>
+      <t>data di morte |</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> vuoto/milestone</t>
+    </r>
+  </si>
+  <si>
+    <t>quote</t>
+  </si>
+  <si>
+    <t>double angle quotation marks | …</t>
+  </si>
+  <si>
+    <t>simbolo che indica la rappresentazione della citazione</t>
+  </si>
+  <si>
+    <t>testo della citazione</t>
+  </si>
+  <si>
+    <t>riferimento a un'altra posizione</t>
   </si>
 </sst>
 </file>
@@ -8505,7 +8587,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -8842,6 +8923,30 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -8860,15 +8965,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8878,29 +8977,44 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -8911,69 +9025,36 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8983,15 +9064,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -9016,6 +9097,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -9358,10 +9440,10 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
@@ -9369,868 +9451,868 @@
     </row>
     <row r="2" spans="1:6" ht="33" customHeight="1">
       <c r="A2" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="18" customFormat="1">
+      <c r="A3" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="82" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="18" customFormat="1">
+      <c r="A4" s="76" t="s">
         <v>93</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="19" customFormat="1">
-      <c r="A3" s="77" t="s">
+      <c r="E4" s="82" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="18" customFormat="1">
+      <c r="A5" s="76" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="E3" s="83" t="s">
+      <c r="C5" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E5" s="82" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="15" customFormat="1">
+      <c r="A6" s="83" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="18" customFormat="1">
+      <c r="A7" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="18" customFormat="1" ht="17" customHeight="1">
+      <c r="A8" s="76" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="86" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" s="19" customFormat="1">
-      <c r="A4" s="77" t="s">
-        <v>95</v>
-      </c>
-      <c r="E4" s="83" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="19" customFormat="1">
-      <c r="A5" s="77" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="E5" s="83" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="15" customFormat="1">
-      <c r="A6" s="84" t="s">
+      <c r="F8" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="16" customFormat="1">
+      <c r="A9" s="51" t="s">
         <v>98</v>
-      </c>
-      <c r="E6" s="85" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="19" customFormat="1">
-      <c r="A7" s="77" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A8" s="77" t="s">
-        <v>97</v>
-      </c>
-      <c r="E8" s="87" t="s">
-        <v>109</v>
-      </c>
-      <c r="F8" s="19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="16" customFormat="1">
-      <c r="A9" s="52" t="s">
-        <v>100</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="F9" s="16" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="15" customFormat="1">
+      <c r="A10" s="83" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="18" customFormat="1">
+      <c r="A11" s="76" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" s="15" customFormat="1">
-      <c r="A10" s="84" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="15" t="s">
+      <c r="B11" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="19" customFormat="1">
-      <c r="A11" s="77" t="s">
+      <c r="E11" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="B11" s="19" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="19" t="s">
+    </row>
+    <row r="12" spans="1:6" s="18" customFormat="1">
+      <c r="A12" s="76" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="83" t="s">
+      <c r="B12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" s="19" customFormat="1">
-      <c r="A12" s="77" t="s">
+      <c r="E12" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="B12" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="19" t="s">
+    </row>
+    <row r="13" spans="1:6" s="16" customFormat="1">
+      <c r="A13" s="51" t="s">
         <v>131</v>
-      </c>
-      <c r="E12" s="83" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="16" customFormat="1">
-      <c r="A13" s="52" t="s">
-        <v>133</v>
       </c>
       <c r="B13" s="16" t="s">
         <v>41</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="153" t="s">
+        <v>101</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="17" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="160" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="E14" s="163" t="s">
-        <v>226</v>
+      <c r="E14" s="168" t="s">
+        <v>224</v>
       </c>
       <c r="F14" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="161"/>
+      <c r="A15" s="167"/>
       <c r="B15" s="15" t="s">
         <v>38</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="164"/>
+        <v>122</v>
+      </c>
+      <c r="E15" s="169"/>
       <c r="F15" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="162"/>
+      <c r="A16" s="154"/>
       <c r="B16" s="16" t="s">
         <v>40</v>
       </c>
       <c r="C16" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E16" s="170"/>
+      <c r="F16" s="16"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="153" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="16" t="s">
+      <c r="C17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="153" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="167"/>
+      <c r="B18" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="167"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="154"/>
+      <c r="B19" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="E16" s="165"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="160" t="s">
-        <v>135</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="160" t="s">
+      <c r="E19" s="154"/>
+      <c r="F19" s="16"/>
+    </row>
+    <row r="20" spans="1:6" s="16" customFormat="1">
+      <c r="A20" s="51" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="161"/>
-      <c r="B18" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E18" s="161"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="162"/>
-      <c r="B19" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>139</v>
-      </c>
-      <c r="E19" s="162"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" s="16" customFormat="1">
-      <c r="A20" s="52" t="s">
+      <c r="E20" s="85" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="18" customFormat="1">
+      <c r="A21" s="76" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="86" t="s">
+      <c r="E21" s="82" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="19" customFormat="1">
-      <c r="A21" s="77" t="s">
+    <row r="22" spans="1:6">
+      <c r="A22" s="163" t="s">
         <v>145</v>
-      </c>
-      <c r="E21" s="83" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="156" t="s">
-        <v>147</v>
       </c>
       <c r="B22" t="s">
         <v>5</v>
       </c>
       <c r="C22" t="s">
-        <v>150</v>
-      </c>
-      <c r="E22" s="166" t="s">
-        <v>149</v>
+        <v>148</v>
+      </c>
+      <c r="E22" s="157" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="157"/>
+      <c r="A23" s="164"/>
       <c r="B23" t="s">
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>157</v>
-      </c>
-      <c r="E23" s="161"/>
+        <v>155</v>
+      </c>
+      <c r="E23" s="167"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="158"/>
+      <c r="A24" s="165"/>
       <c r="B24" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C24" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="E24" s="154"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:6" s="16" customFormat="1">
+      <c r="A25" s="51" t="s">
         <v>151</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>152</v>
-      </c>
-      <c r="E24" s="162"/>
-      <c r="F24" s="16"/>
-    </row>
-    <row r="25" spans="1:6" s="16" customFormat="1">
-      <c r="A25" s="52" t="s">
-        <v>153</v>
       </c>
       <c r="B25" s="16" t="s">
         <v>36</v>
       </c>
       <c r="C25" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E25" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="E25" s="16" t="s">
+      <c r="F25" s="16" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="18" customFormat="1">
+      <c r="A26" s="76" t="s">
+        <v>158</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="F25" s="16" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="19" customFormat="1">
-      <c r="A26" s="77" t="s">
+      <c r="E26" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="B26" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="19" t="s">
-        <v>158</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="153" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="160" t="s">
+      <c r="B27" t="s">
         <v>161</v>
       </c>
-      <c r="B27" t="s">
-        <v>163</v>
-      </c>
       <c r="C27" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="E27" s="166" t="s">
-        <v>107</v>
-      </c>
-      <c r="F27" s="160" t="s">
-        <v>167</v>
+        <v>231</v>
+      </c>
+      <c r="E27" s="157" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="153" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" s="162"/>
+      <c r="A28" s="154"/>
       <c r="B28" s="16" t="s">
         <v>31</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="E28" s="171"/>
-      <c r="F28" s="162"/>
+        <v>164</v>
+      </c>
+      <c r="E28" s="158"/>
+      <c r="F28" s="154"/>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="160" t="s">
-        <v>165</v>
+      <c r="A29" s="153" t="s">
+        <v>163</v>
       </c>
       <c r="B29" t="s">
         <v>36</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="160" t="s">
+      <c r="E29" s="153" t="s">
+        <v>167</v>
+      </c>
+      <c r="F29" s="159" t="s">
         <v>169</v>
       </c>
-      <c r="F29" s="172" t="s">
-        <v>171</v>
-      </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="162"/>
+      <c r="A30" s="154"/>
       <c r="B30" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D30" s="16"/>
-      <c r="E30" s="162"/>
-      <c r="F30" s="173"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="160"/>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" s="160" t="s">
+      <c r="A31" s="153" t="s">
+        <v>174</v>
+      </c>
+      <c r="B31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31" t="s">
+        <v>236</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="154"/>
+      <c r="B32" s="44" t="s">
         <v>176</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C32" s="89" t="s">
+        <v>235</v>
+      </c>
+      <c r="D32" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="C31" t="s">
-        <v>238</v>
-      </c>
-      <c r="D31" s="5" t="s">
+      <c r="E32" s="85" t="s">
+        <v>233</v>
+      </c>
+      <c r="F32" s="16"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="153" t="s">
         <v>177</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="162"/>
-      <c r="B32" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="C32" s="90" t="s">
-        <v>237</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>236</v>
-      </c>
-      <c r="E32" s="86" t="s">
-        <v>235</v>
-      </c>
-      <c r="F32" s="16"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="160" t="s">
-        <v>179</v>
       </c>
       <c r="D33" s="4"/>
       <c r="E33" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="F33" s="160" t="s">
-        <v>181</v>
+        <v>178</v>
+      </c>
+      <c r="F33" s="153" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="162"/>
+      <c r="A34" s="154"/>
       <c r="B34" s="16"/>
       <c r="C34" s="16"/>
-      <c r="D34" s="91"/>
+      <c r="D34" s="90"/>
       <c r="E34" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="F34" s="154"/>
+    </row>
+    <row r="35" spans="1:6" s="16" customFormat="1">
+      <c r="A35" s="51" t="s">
+        <v>180</v>
+      </c>
+      <c r="D35" s="90"/>
+      <c r="E35" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="F35" s="16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="18" customFormat="1">
+      <c r="A36" s="76" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="91"/>
+      <c r="E36" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="18" customFormat="1">
+      <c r="A37" s="76" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" s="91"/>
+      <c r="E37" s="18" t="s">
+        <v>204</v>
+      </c>
+      <c r="F37" s="18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="18" customFormat="1">
+      <c r="A38" s="76" t="s">
+        <v>188</v>
+      </c>
+      <c r="D38" s="91"/>
+      <c r="E38" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="18" customFormat="1">
+      <c r="A39" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="D39" s="91"/>
+      <c r="E39" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="18" customFormat="1">
+      <c r="A40" s="76" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="82" t="s">
+        <v>194</v>
+      </c>
+      <c r="D40" s="91"/>
+      <c r="E40" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="18" customFormat="1">
+      <c r="A41" s="76" t="s">
+        <v>195</v>
+      </c>
+      <c r="E41" s="92" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="18" customFormat="1">
+      <c r="A42" s="93" t="s">
+        <v>196</v>
+      </c>
+      <c r="E42" s="92" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="18" customFormat="1">
+      <c r="A43" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="D43" s="92"/>
+      <c r="E43" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="18" customFormat="1">
+      <c r="A44" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="D44" s="92"/>
+      <c r="E44" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="18" customFormat="1">
+      <c r="A45" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D45" s="92" t="s">
+        <v>240</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="18" customFormat="1">
+      <c r="A46" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="B46" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>207</v>
       </c>
-      <c r="F34" s="162"/>
-    </row>
-    <row r="35" spans="1:6" s="16" customFormat="1">
-      <c r="A35" s="52" t="s">
-        <v>182</v>
-      </c>
-      <c r="D35" s="91"/>
-      <c r="E35" s="16" t="s">
-        <v>183</v>
-      </c>
-      <c r="F35" s="16" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="19" customFormat="1">
-      <c r="A36" s="77" t="s">
-        <v>185</v>
-      </c>
-      <c r="D36" s="92"/>
-      <c r="E36" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="F36" s="19" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" s="19" customFormat="1">
-      <c r="A37" s="77" t="s">
-        <v>188</v>
-      </c>
-      <c r="D37" s="92"/>
-      <c r="E37" s="19" t="s">
-        <v>206</v>
-      </c>
-      <c r="F37" s="19" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" s="19" customFormat="1">
-      <c r="A38" s="77" t="s">
-        <v>190</v>
-      </c>
-      <c r="D38" s="92"/>
-      <c r="E38" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="F38" s="19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" s="19" customFormat="1">
-      <c r="A39" s="77" t="s">
-        <v>193</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C39" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="D39" s="92"/>
-      <c r="E39" s="19" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" s="19" customFormat="1">
-      <c r="A40" s="77" t="s">
-        <v>195</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="83" t="s">
-        <v>196</v>
-      </c>
-      <c r="D40" s="92"/>
-      <c r="E40" s="21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" s="19" customFormat="1">
-      <c r="A41" s="77" t="s">
-        <v>197</v>
-      </c>
-      <c r="E41" s="93" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" s="19" customFormat="1">
-      <c r="A42" s="94" t="s">
-        <v>198</v>
-      </c>
-      <c r="E42" s="93" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" s="19" customFormat="1">
-      <c r="A43" s="77" t="s">
-        <v>201</v>
-      </c>
-      <c r="D43" s="93"/>
-      <c r="E43" s="19" t="s">
-        <v>205</v>
-      </c>
-      <c r="F43" s="19" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="19" customFormat="1">
-      <c r="A44" s="77" t="s">
-        <v>203</v>
-      </c>
-      <c r="D44" s="93"/>
-      <c r="E44" s="19" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" s="19" customFormat="1">
-      <c r="A45" s="77" t="s">
-        <v>241</v>
-      </c>
-      <c r="B45" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="C45" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D45" s="93" t="s">
-        <v>242</v>
-      </c>
-      <c r="E45" s="21" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" s="19" customFormat="1">
-      <c r="A46" s="77" t="s">
+      <c r="D46" s="92" t="s">
+        <v>208</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="18" customFormat="1" ht="34">
+      <c r="A47" s="76" t="s">
+        <v>211</v>
+      </c>
+      <c r="D47" s="92"/>
+      <c r="E47" s="23" t="s">
+        <v>657</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="155" t="s">
         <v>212</v>
       </c>
-      <c r="B46" s="19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C46" s="19" t="s">
-        <v>209</v>
-      </c>
-      <c r="D46" s="93" t="s">
-        <v>210</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" s="19" customFormat="1" ht="34">
-      <c r="A47" s="77" t="s">
-        <v>213</v>
-      </c>
-      <c r="D47" s="93"/>
-      <c r="E47" s="24" t="s">
-        <v>659</v>
-      </c>
-      <c r="F47" s="19" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="169" t="s">
+      <c r="B48" t="s">
         <v>214</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>216</v>
       </c>
-      <c r="C48" t="s">
-        <v>218</v>
-      </c>
       <c r="D48" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="E48" s="170" t="s">
-        <v>226</v>
+        <v>217</v>
+      </c>
+      <c r="E48" s="156" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="169"/>
+      <c r="A49" s="155"/>
       <c r="B49" t="s">
         <v>36</v>
       </c>
       <c r="C49" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D49" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" s="156"/>
+    </row>
+    <row r="50" spans="1:6" s="18" customFormat="1">
+      <c r="A50" s="93" t="s">
+        <v>213</v>
+      </c>
+      <c r="D50" s="91"/>
+      <c r="E50" s="18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" s="18" customFormat="1">
+      <c r="A51" s="93" t="s">
+        <v>222</v>
+      </c>
+      <c r="E51" s="92" t="s">
         <v>220</v>
       </c>
-      <c r="E49" s="170"/>
-    </row>
-    <row r="50" spans="1:6" s="19" customFormat="1">
-      <c r="A50" s="94" t="s">
-        <v>215</v>
-      </c>
-      <c r="D50" s="92"/>
-      <c r="E50" s="19" t="s">
+      <c r="F51" s="18" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="51" spans="1:6" s="19" customFormat="1">
-      <c r="A51" s="94" t="s">
+    <row r="52" spans="1:6" s="18" customFormat="1">
+      <c r="A52" s="93" t="s">
+        <v>223</v>
+      </c>
+      <c r="B52" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="E52" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="E51" s="93" t="s">
-        <v>222</v>
-      </c>
-      <c r="F51" s="19" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" s="19" customFormat="1">
-      <c r="A52" s="94" t="s">
-        <v>225</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C52" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="E52" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="F52" s="19" t="s">
-        <v>259</v>
+      <c r="F52" s="18" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="156" t="s">
-        <v>251</v>
+      <c r="A53" s="163" t="s">
+        <v>249</v>
       </c>
       <c r="B53" t="s">
         <v>31</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="E53" s="167" t="s">
-        <v>258</v>
-      </c>
-      <c r="F53" s="160"/>
+        <v>255</v>
+      </c>
+      <c r="E53" s="171" t="s">
+        <v>256</v>
+      </c>
+      <c r="F53" s="153"/>
     </row>
     <row r="54" spans="1:6">
-      <c r="A54" s="158"/>
+      <c r="A54" s="165"/>
       <c r="B54" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="D54" s="20" t="s">
+      <c r="C54" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="D54" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="E54" s="172"/>
+      <c r="F54" s="154"/>
+    </row>
+    <row r="55" spans="1:6" s="16" customFormat="1" ht="31" customHeight="1">
+      <c r="A55" s="163" t="s">
+        <v>251</v>
+      </c>
+      <c r="B55" s="135" t="s">
+        <v>31</v>
+      </c>
+      <c r="C55" s="138" t="s">
         <v>252</v>
       </c>
-      <c r="E54" s="168"/>
-      <c r="F54" s="162"/>
-    </row>
-    <row r="55" spans="1:6" s="16" customFormat="1" ht="31" customHeight="1">
-      <c r="A55" s="156" t="s">
-        <v>253</v>
-      </c>
-      <c r="B55" s="136" t="s">
-        <v>31</v>
-      </c>
-      <c r="C55" s="139" t="s">
+      <c r="D55" s="138" t="s">
+        <v>116</v>
+      </c>
+      <c r="E55" s="161" t="s">
+        <v>649</v>
+      </c>
+      <c r="F55" s="94"/>
+    </row>
+    <row r="56" spans="1:6" s="16" customFormat="1" ht="47" customHeight="1">
+      <c r="A56" s="165"/>
+      <c r="B56" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56" s="66" t="s">
+        <v>644</v>
+      </c>
+      <c r="D56" s="139" t="s">
+        <v>646</v>
+      </c>
+      <c r="E56" s="162"/>
+      <c r="F56" s="137"/>
+    </row>
+    <row r="57" spans="1:6" s="18" customFormat="1" ht="68">
+      <c r="A57" s="163" t="s">
         <v>254</v>
       </c>
-      <c r="D55" s="139" t="s">
-        <v>118</v>
-      </c>
-      <c r="E55" s="154" t="s">
-        <v>651</v>
-      </c>
-      <c r="F55" s="95"/>
-    </row>
-    <row r="56" spans="1:6" s="16" customFormat="1" ht="47" customHeight="1">
-      <c r="A56" s="158"/>
-      <c r="B56" s="67" t="s">
-        <v>36</v>
-      </c>
-      <c r="C56" s="67" t="s">
-        <v>646</v>
-      </c>
-      <c r="D56" s="140" t="s">
+      <c r="B57" s="83" t="s">
+        <v>41</v>
+      </c>
+      <c r="C57" s="136" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="65" t="s">
         <v>648</v>
       </c>
-      <c r="E56" s="155"/>
-      <c r="F56" s="138"/>
-    </row>
-    <row r="57" spans="1:6" s="19" customFormat="1" ht="68">
-      <c r="A57" s="156" t="s">
-        <v>256</v>
-      </c>
-      <c r="B57" s="84" t="s">
-        <v>41</v>
-      </c>
-      <c r="C57" s="137" t="s">
-        <v>43</v>
-      </c>
-      <c r="D57" s="66" t="s">
+      <c r="E57" s="161" t="s">
         <v>650</v>
       </c>
-      <c r="E57" s="154" t="s">
-        <v>652</v>
-      </c>
-      <c r="F57" s="18"/>
+      <c r="F57" s="17"/>
     </row>
     <row r="58" spans="1:6" s="16" customFormat="1">
-      <c r="A58" s="157"/>
+      <c r="A58" s="164"/>
       <c r="B58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C58" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="D58" t="s">
-        <v>174</v>
-      </c>
-      <c r="E58" s="159"/>
+        <v>172</v>
+      </c>
+      <c r="E58" s="166"/>
       <c r="F58" s="15" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="59" spans="1:6" s="16" customFormat="1">
-      <c r="A59" s="157"/>
+      <c r="A59" s="164"/>
       <c r="B59" s="15" t="s">
         <v>39</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>449</v>
-      </c>
-      <c r="E59" s="159"/>
-      <c r="F59" s="20" t="s">
-        <v>366</v>
+        <v>447</v>
+      </c>
+      <c r="E59" s="166"/>
+      <c r="F59" s="19" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="60" spans="1:6" s="16" customFormat="1" ht="37" customHeight="1">
-      <c r="A60" s="158"/>
-      <c r="B60" s="67" t="s">
+      <c r="A60" s="165"/>
+      <c r="B60" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="C60" s="67" t="s">
-        <v>646</v>
-      </c>
-      <c r="D60" s="34" t="s">
-        <v>649</v>
-      </c>
-      <c r="E60" s="155"/>
+      <c r="C60" s="66" t="s">
+        <v>644</v>
+      </c>
+      <c r="D60" s="33" t="s">
+        <v>647</v>
+      </c>
+      <c r="E60" s="162"/>
     </row>
     <row r="61" spans="1:6" s="16" customFormat="1">
-      <c r="A61" s="88" t="s">
+      <c r="A61" s="87" t="s">
+        <v>258</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" s="16" customFormat="1">
+      <c r="A62" s="87" t="s">
+        <v>259</v>
+      </c>
+      <c r="B62" s="44" t="s">
+        <v>261</v>
+      </c>
+      <c r="C62" s="44" t="s">
+        <v>640</v>
+      </c>
+      <c r="E62" s="69" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" s="16" customFormat="1" ht="16" customHeight="1">
+      <c r="A63" s="87" t="s">
         <v>260</v>
-      </c>
-      <c r="E61" s="16" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" s="16" customFormat="1">
-      <c r="A62" s="88" t="s">
-        <v>261</v>
-      </c>
-      <c r="B62" s="45" t="s">
-        <v>263</v>
-      </c>
-      <c r="C62" s="45" t="s">
-        <v>642</v>
-      </c>
-      <c r="E62" s="70" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" s="16" customFormat="1" ht="16" customHeight="1">
-      <c r="A63" s="88" t="s">
-        <v>262</v>
       </c>
       <c r="B63" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="C63" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="E63" s="23" t="s">
+      <c r="C63" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D63" s="18" t="s">
         <v>641</v>
       </c>
+      <c r="E63" s="22" t="s">
+        <v>639</v>
+      </c>
       <c r="F63" s="16" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="64" spans="1:6" s="16" customFormat="1" ht="68">
-      <c r="A64" s="120" t="s">
-        <v>265</v>
-      </c>
-      <c r="B64" s="119" t="s">
-        <v>266</v>
-      </c>
-      <c r="C64" s="119" t="s">
-        <v>238</v>
-      </c>
-      <c r="D64" s="119"/>
-      <c r="E64" s="125" t="s">
-        <v>660</v>
-      </c>
-      <c r="F64" s="23" t="s">
-        <v>661</v>
+      <c r="A64" s="119" t="s">
+        <v>263</v>
+      </c>
+      <c r="B64" s="118" t="s">
+        <v>264</v>
+      </c>
+      <c r="C64" s="118" t="s">
+        <v>236</v>
+      </c>
+      <c r="D64" s="118"/>
+      <c r="E64" s="124" t="s">
+        <v>658</v>
+      </c>
+      <c r="F64" s="22" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -10263,6 +10345,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A60"/>
+    <mergeCell ref="E57:E60"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E14:E16"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="E22:E24"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="E53:E54"/>
     <mergeCell ref="F53:F54"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="A48:A49"/>
@@ -10275,18 +10369,6 @@
     <mergeCell ref="E27:E28"/>
     <mergeCell ref="F29:F30"/>
     <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A60"/>
-    <mergeCell ref="E57:E60"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E14:E16"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="E53:E54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10306,7 +10388,7 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="59.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="60" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="59" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.83203125" customWidth="1"/>
     <col min="4" max="4" width="59" customWidth="1"/>
     <col min="5" max="5" width="52.6640625" customWidth="1"/>
@@ -10317,1573 +10399,1607 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="57" t="s">
         <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="17">
-      <c r="A2" s="161" t="s">
+      <c r="A2" s="167" t="s">
+        <v>343</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="E2" s="191" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="16" customFormat="1" ht="68">
+      <c r="A3" s="154"/>
+      <c r="B3" s="37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>271</v>
+      </c>
+      <c r="E3" s="192"/>
+      <c r="F3" s="33" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17">
+      <c r="A4" s="153" t="s">
+        <v>344</v>
+      </c>
+      <c r="B4" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>276</v>
+      </c>
+      <c r="E4" s="168" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="167"/>
+      <c r="B5" s="59" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="169"/>
+    </row>
+    <row r="6" spans="1:6" s="16" customFormat="1">
+      <c r="A6" s="154"/>
+      <c r="B6" s="60" t="s">
+        <v>273</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="E6" s="170"/>
+      <c r="F6" s="22"/>
+    </row>
+    <row r="7" spans="1:6" ht="17">
+      <c r="A7" s="183" t="s">
         <v>345</v>
       </c>
-      <c r="B2" s="59" t="s">
-        <v>148</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="E2" s="190" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="16" customFormat="1" ht="68">
-      <c r="A3" s="162"/>
-      <c r="B3" s="38" t="s">
+      <c r="B7" s="59" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="E7" s="168" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17">
+      <c r="A8" s="173"/>
+      <c r="B8" s="59" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" s="169"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="173"/>
+      <c r="B9" s="59" t="s">
+        <v>282</v>
+      </c>
+      <c r="D9" t="s">
+        <v>286</v>
+      </c>
+      <c r="E9" s="169"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="173"/>
+      <c r="B10" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="D10" t="s">
+        <v>288</v>
+      </c>
+      <c r="E10" s="169"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="173"/>
+      <c r="B11" s="59" t="s">
+        <v>284</v>
+      </c>
+      <c r="C11" t="s">
+        <v>289</v>
+      </c>
+      <c r="E11" s="169"/>
+    </row>
+    <row r="12" spans="1:6" s="16" customFormat="1" ht="40" customHeight="1">
+      <c r="A12" s="174"/>
+      <c r="B12" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C12" s="45" t="s">
+        <v>290</v>
+      </c>
+      <c r="D12" s="110" t="s">
+        <v>292</v>
+      </c>
+      <c r="E12" s="170"/>
+      <c r="F12" s="33" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="34">
+      <c r="A13" s="187" t="s">
+        <v>266</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="D13" s="132" t="s">
         <v>293</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>273</v>
-      </c>
-      <c r="E3" s="191"/>
-      <c r="F3" s="34" t="s">
+      <c r="E13" s="168" t="s">
+        <v>224</v>
+      </c>
+      <c r="F13" s="153" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="167"/>
+      <c r="B14" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="E14" s="169"/>
+      <c r="F14" s="167"/>
+    </row>
+    <row r="15" spans="1:6" ht="34">
+      <c r="A15" s="167"/>
+      <c r="B15" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="133" t="s">
+        <v>642</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="E15" s="169"/>
+      <c r="F15" s="167"/>
+    </row>
+    <row r="16" spans="1:6" s="16" customFormat="1">
+      <c r="A16" s="154"/>
+      <c r="B16" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>154</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>643</v>
+      </c>
+      <c r="E16" s="170"/>
+      <c r="F16" s="154"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="183" t="s">
+        <v>346</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>295</v>
+      </c>
+      <c r="E17" s="168" t="s">
+        <v>225</v>
+      </c>
+      <c r="F17" s="188" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="32" customHeight="1">
+      <c r="A18" s="173"/>
+      <c r="B18" s="111" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="134" t="s">
+        <v>296</v>
+      </c>
+      <c r="D18" s="123" t="s">
+        <v>327</v>
+      </c>
+      <c r="E18" s="156"/>
+      <c r="F18" s="189"/>
+    </row>
+    <row r="19" spans="1:6" s="16" customFormat="1">
+      <c r="A19" s="174"/>
+      <c r="B19" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>326</v>
+      </c>
+      <c r="E19" s="170"/>
+      <c r="F19" s="190"/>
+    </row>
+    <row r="20" spans="1:6" s="18" customFormat="1" ht="33" customHeight="1">
+      <c r="A20" s="41" t="s">
+        <v>347</v>
+      </c>
+      <c r="B20" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>298</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="18" customFormat="1">
+      <c r="A21" s="41" t="s">
+        <v>348</v>
+      </c>
+      <c r="B21" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="E21" s="115" t="s">
+        <v>224</v>
+      </c>
+      <c r="F21" s="43"/>
+    </row>
+    <row r="22" spans="1:6" s="15" customFormat="1" ht="65" customHeight="1">
+      <c r="A22" s="173" t="s">
+        <v>349</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="D22" s="120" t="s">
+        <v>402</v>
+      </c>
+      <c r="E22" s="169" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="39" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="15" customFormat="1">
+      <c r="A23" s="173"/>
+      <c r="B23" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="E23" s="169"/>
+      <c r="F23" s="39"/>
+    </row>
+    <row r="24" spans="1:6" s="15" customFormat="1">
+      <c r="A24" s="173"/>
+      <c r="B24" s="61" t="s">
+        <v>300</v>
+      </c>
+      <c r="C24" s="15" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="17">
-      <c r="A4" s="160" t="s">
-        <v>346</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>131</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>278</v>
-      </c>
-      <c r="E4" s="163" t="s">
-        <v>227</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="161"/>
-      <c r="B5" s="60" t="s">
-        <v>274</v>
-      </c>
-      <c r="C5" t="s">
-        <v>281</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>279</v>
-      </c>
-      <c r="E5" s="164"/>
-    </row>
-    <row r="6" spans="1:6" s="16" customFormat="1">
-      <c r="A6" s="162"/>
-      <c r="B6" s="61" t="s">
-        <v>275</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="E6" s="165"/>
-      <c r="F6" s="23"/>
-    </row>
-    <row r="7" spans="1:6" ht="17">
-      <c r="A7" s="184" t="s">
-        <v>347</v>
-      </c>
-      <c r="B7" s="60" t="s">
-        <v>282</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>287</v>
-      </c>
-      <c r="E7" s="163" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17">
-      <c r="A8" s="185"/>
-      <c r="B8" s="60" t="s">
-        <v>283</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>289</v>
-      </c>
-      <c r="E8" s="164"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="185"/>
-      <c r="B9" s="60" t="s">
-        <v>284</v>
-      </c>
-      <c r="D9" t="s">
-        <v>288</v>
-      </c>
-      <c r="E9" s="164"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="185"/>
-      <c r="B10" s="60" t="s">
-        <v>285</v>
-      </c>
-      <c r="D10" t="s">
-        <v>290</v>
-      </c>
-      <c r="E10" s="164"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="185"/>
-      <c r="B11" s="60" t="s">
-        <v>286</v>
-      </c>
-      <c r="C11" t="s">
-        <v>291</v>
-      </c>
-      <c r="E11" s="164"/>
-    </row>
-    <row r="12" spans="1:6" s="16" customFormat="1" ht="40" customHeight="1">
-      <c r="A12" s="186"/>
-      <c r="B12" s="53" t="s">
+      <c r="D24" s="15" t="s">
+        <v>303</v>
+      </c>
+      <c r="E24" s="169"/>
+      <c r="F24" s="121"/>
+    </row>
+    <row r="25" spans="1:6" s="16" customFormat="1" ht="17">
+      <c r="A25" s="174"/>
+      <c r="B25" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="44" t="s">
+        <v>307</v>
+      </c>
+      <c r="D25" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="E25" s="170"/>
+      <c r="F25" s="48" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="18" customFormat="1" ht="17">
+      <c r="A26" s="49" t="s">
+        <v>350</v>
+      </c>
+      <c r="B26" s="63" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="44" t="s">
+        <v>645</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>309</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="F26" s="122" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="19" customFormat="1">
+      <c r="A27" s="49" t="s">
+        <v>351</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>666</v>
+      </c>
+      <c r="F27" s="146"/>
+    </row>
+    <row r="28" spans="1:6" s="19" customFormat="1">
+      <c r="A28" s="49" t="s">
+        <v>352</v>
+      </c>
+      <c r="B28" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" s="21"/>
+      <c r="E28" s="145" t="s">
+        <v>667</v>
+      </c>
+      <c r="F28" s="146"/>
+    </row>
+    <row r="29" spans="1:6" s="19" customFormat="1">
+      <c r="A29" s="49" t="s">
+        <v>353</v>
+      </c>
+      <c r="B29" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="F29" s="146"/>
+    </row>
+    <row r="30" spans="1:6" s="19" customFormat="1">
+      <c r="A30" s="49" t="s">
+        <v>354</v>
+      </c>
+      <c r="B30" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="21"/>
+      <c r="E30" s="145" t="s">
+        <v>669</v>
+      </c>
+      <c r="F30" s="146"/>
+    </row>
+    <row r="31" spans="1:6" s="15" customFormat="1" ht="17">
+      <c r="A31" s="183" t="s">
+        <v>355</v>
+      </c>
+      <c r="B31" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C12" s="46" t="s">
-        <v>292</v>
-      </c>
-      <c r="D12" s="111" t="s">
-        <v>294</v>
-      </c>
-      <c r="E12" s="165"/>
-      <c r="F12" s="34" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="34">
-      <c r="A13" s="192" t="s">
-        <v>268</v>
-      </c>
-      <c r="B13" s="41" t="s">
+      <c r="C31" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="D31" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="E31" s="168" t="s">
+        <v>225</v>
+      </c>
+      <c r="F31" s="39" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="15" customFormat="1">
+      <c r="A32" s="173"/>
+      <c r="B32" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" t="s">
+        <v>318</v>
+      </c>
+      <c r="E32" s="169"/>
+      <c r="F32" s="39"/>
+    </row>
+    <row r="33" spans="1:6" s="15" customFormat="1">
+      <c r="A33" s="174"/>
+      <c r="B33" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="C33" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="D33" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="E33" s="170"/>
+      <c r="F33" s="45"/>
+    </row>
+    <row r="34" spans="1:6" s="15" customFormat="1">
+      <c r="A34" s="31" t="s">
+        <v>356</v>
+      </c>
+      <c r="B34" s="64"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="50" t="s">
+        <v>386</v>
+      </c>
+      <c r="F34" s="45"/>
+    </row>
+    <row r="35" spans="1:6" s="16" customFormat="1" ht="49" customHeight="1">
+      <c r="A35" s="51" t="s">
+        <v>357</v>
+      </c>
+      <c r="B35" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="E35" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="F35" s="22" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="18" customFormat="1" ht="17">
+      <c r="A36" s="18" t="s">
+        <v>358</v>
+      </c>
+      <c r="B36" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="D13" s="133" t="s">
-        <v>295</v>
-      </c>
-      <c r="E13" s="163" t="s">
-        <v>226</v>
-      </c>
-      <c r="F13" s="160" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="161"/>
-      <c r="B14" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" t="s">
-        <v>156</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="E14" s="164"/>
-      <c r="F14" s="161"/>
-    </row>
-    <row r="15" spans="1:6" ht="34">
-      <c r="A15" s="161"/>
-      <c r="B15" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="134" t="s">
-        <v>644</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>296</v>
-      </c>
-      <c r="E15" s="164"/>
-      <c r="F15" s="161"/>
-    </row>
-    <row r="16" spans="1:6" s="16" customFormat="1">
-      <c r="A16" s="162"/>
-      <c r="B16" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>645</v>
-      </c>
-      <c r="E16" s="165"/>
-      <c r="F16" s="162"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="184" t="s">
-        <v>348</v>
-      </c>
-      <c r="B17" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" t="s">
-        <v>297</v>
-      </c>
-      <c r="E17" s="163" t="s">
-        <v>227</v>
-      </c>
-      <c r="F17" s="180" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="32" customHeight="1">
-      <c r="A18" s="185"/>
-      <c r="B18" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="135" t="s">
-        <v>298</v>
-      </c>
-      <c r="D18" s="124" t="s">
-        <v>329</v>
-      </c>
-      <c r="E18" s="170"/>
-      <c r="F18" s="183"/>
-    </row>
-    <row r="19" spans="1:6" s="16" customFormat="1">
-      <c r="A19" s="186"/>
-      <c r="B19" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="E19" s="165"/>
-      <c r="F19" s="182"/>
-    </row>
-    <row r="20" spans="1:6" s="19" customFormat="1" ht="33" customHeight="1">
-      <c r="A20" s="42" t="s">
-        <v>349</v>
-      </c>
-      <c r="B20" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>300</v>
-      </c>
-      <c r="E20" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="F20" s="44" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="19" customFormat="1">
-      <c r="A21" s="42" t="s">
-        <v>350</v>
-      </c>
-      <c r="B21" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="E21" s="116" t="s">
-        <v>226</v>
-      </c>
-      <c r="F21" s="44"/>
-    </row>
-    <row r="22" spans="1:6" s="15" customFormat="1" ht="65" customHeight="1">
-      <c r="A22" s="185" t="s">
-        <v>351</v>
-      </c>
-      <c r="B22" s="41" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="47" t="s">
-        <v>303</v>
-      </c>
-      <c r="D22" s="121" t="s">
-        <v>404</v>
-      </c>
-      <c r="E22" s="164" t="s">
-        <v>226</v>
-      </c>
-      <c r="F22" s="40" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" s="15" customFormat="1">
-      <c r="A23" s="185"/>
-      <c r="B23" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>400</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>403</v>
-      </c>
-      <c r="E23" s="164"/>
-      <c r="F23" s="40"/>
-    </row>
-    <row r="24" spans="1:6" s="15" customFormat="1">
-      <c r="A24" s="185"/>
-      <c r="B24" s="62" t="s">
-        <v>302</v>
-      </c>
-      <c r="C24" s="15" t="s">
-        <v>308</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>305</v>
-      </c>
-      <c r="E24" s="164"/>
-      <c r="F24" s="122"/>
-    </row>
-    <row r="25" spans="1:6" s="16" customFormat="1" ht="17">
-      <c r="A25" s="186"/>
-      <c r="B25" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="45" t="s">
-        <v>309</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>310</v>
-      </c>
-      <c r="E25" s="165"/>
-      <c r="F25" s="49" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" s="19" customFormat="1" ht="17">
-      <c r="A26" s="50" t="s">
-        <v>352</v>
-      </c>
-      <c r="B26" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="45" t="s">
-        <v>647</v>
-      </c>
-      <c r="D26" s="45" t="s">
-        <v>311</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="F26" s="123" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" s="20" customFormat="1">
-      <c r="A27" s="50" t="s">
-        <v>353</v>
-      </c>
-      <c r="B27" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>668</v>
-      </c>
-      <c r="F27" s="147"/>
-    </row>
-    <row r="28" spans="1:6" s="20" customFormat="1">
-      <c r="A28" s="50" t="s">
-        <v>354</v>
-      </c>
-      <c r="B28" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="146" t="s">
-        <v>669</v>
-      </c>
-      <c r="F28" s="147"/>
-    </row>
-    <row r="29" spans="1:6" s="20" customFormat="1">
-      <c r="A29" s="50" t="s">
-        <v>355</v>
-      </c>
-      <c r="B29" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" s="22" t="s">
-        <v>670</v>
-      </c>
-      <c r="F29" s="147"/>
-    </row>
-    <row r="30" spans="1:6" s="20" customFormat="1">
-      <c r="A30" s="50" t="s">
-        <v>356</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D30" s="22"/>
-      <c r="E30" s="146" t="s">
-        <v>671</v>
-      </c>
-      <c r="F30" s="147"/>
-    </row>
-    <row r="31" spans="1:6" s="15" customFormat="1" ht="17">
-      <c r="A31" s="184" t="s">
-        <v>357</v>
-      </c>
-      <c r="B31" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="36" t="s">
-        <v>317</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="E31" s="163" t="s">
-        <v>227</v>
-      </c>
-      <c r="F31" s="40" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" s="15" customFormat="1">
-      <c r="A32" s="185"/>
-      <c r="B32" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" t="s">
-        <v>320</v>
-      </c>
-      <c r="E32" s="164"/>
-      <c r="F32" s="40"/>
-    </row>
-    <row r="33" spans="1:6" s="15" customFormat="1">
-      <c r="A33" s="186"/>
-      <c r="B33" s="64" t="s">
-        <v>216</v>
-      </c>
-      <c r="C33" s="45" t="s">
+      <c r="C36" s="21" t="s">
         <v>321</v>
       </c>
-      <c r="D33" s="45" t="s">
+      <c r="D36" s="21" t="s">
+        <v>323</v>
+      </c>
+      <c r="E36" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="F36" s="23" t="s">
         <v>322</v>
       </c>
-      <c r="E33" s="165"/>
-      <c r="F33" s="46"/>
-    </row>
-    <row r="34" spans="1:6" s="15" customFormat="1">
-      <c r="A34" s="32" t="s">
-        <v>358</v>
-      </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="19"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="51" t="s">
-        <v>388</v>
-      </c>
-      <c r="F34" s="46"/>
-    </row>
-    <row r="35" spans="1:6" s="16" customFormat="1" ht="49" customHeight="1">
-      <c r="A35" s="52" t="s">
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="153" t="s">
         <v>359</v>
       </c>
-      <c r="B35" s="53" t="s">
-        <v>163</v>
-      </c>
-      <c r="C35" s="53" t="s">
-        <v>164</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="F35" s="23" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="19" customFormat="1" ht="17">
-      <c r="A36" s="19" t="s">
-        <v>360</v>
-      </c>
-      <c r="B36" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36" s="22" t="s">
-        <v>323</v>
-      </c>
-      <c r="D36" s="22" t="s">
-        <v>325</v>
-      </c>
-      <c r="E36" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="F36" s="24" t="s">
+      <c r="B37" s="59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C37" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="160" t="s">
-        <v>361</v>
-      </c>
-      <c r="B37" s="60" t="s">
-        <v>148</v>
-      </c>
-      <c r="C37" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" t="s">
-        <v>326</v>
-      </c>
-      <c r="E37" s="163" t="s">
-        <v>227</v>
-      </c>
-      <c r="F37" s="180"/>
+      <c r="E37" s="168" t="s">
+        <v>225</v>
+      </c>
+      <c r="F37" s="188"/>
     </row>
     <row r="38" spans="1:6" ht="34">
-      <c r="A38" s="161"/>
+      <c r="A38" s="167"/>
       <c r="B38" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C38" s="37" t="s">
-        <v>327</v>
-      </c>
-      <c r="D38" s="47" t="s">
-        <v>330</v>
-      </c>
-      <c r="E38" s="170"/>
-      <c r="F38" s="183"/>
+      <c r="C38" s="36" t="s">
+        <v>325</v>
+      </c>
+      <c r="D38" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="E38" s="156"/>
+      <c r="F38" s="189"/>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="162"/>
-      <c r="B39" s="61" t="s">
-        <v>216</v>
+      <c r="A39" s="154"/>
+      <c r="B39" s="60" t="s">
+        <v>214</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D39" s="16" t="s">
-        <v>328</v>
-      </c>
-      <c r="E39" s="165"/>
-      <c r="F39" s="182"/>
+        <v>326</v>
+      </c>
+      <c r="E39" s="170"/>
+      <c r="F39" s="190"/>
     </row>
     <row r="40" spans="1:6" ht="52" customHeight="1">
-      <c r="A40" s="187" t="s">
+      <c r="A40" s="195" t="s">
+        <v>360</v>
+      </c>
+      <c r="B40" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>332</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="E40" s="168" t="s">
+        <v>224</v>
+      </c>
+      <c r="F40" s="175" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="37" customHeight="1">
+      <c r="A41" s="196"/>
+      <c r="B41" s="37" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="D41" s="33" t="s">
+        <v>376</v>
+      </c>
+      <c r="E41" s="170"/>
+      <c r="F41" s="177"/>
+    </row>
+    <row r="42" spans="1:6" s="16" customFormat="1" ht="34">
+      <c r="A42" s="52" t="s">
+        <v>361</v>
+      </c>
+      <c r="B42" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="C42" s="66" t="s">
+        <v>336</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>377</v>
+      </c>
+      <c r="E42" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="F42" s="67" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="19" customHeight="1">
+      <c r="A43" s="153" t="s">
         <v>362</v>
-      </c>
-      <c r="B40" s="41" t="s">
-        <v>36</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="E40" s="163" t="s">
-        <v>226</v>
-      </c>
-      <c r="F40" s="177" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="37" customHeight="1">
-      <c r="A41" s="188"/>
-      <c r="B41" s="38" t="s">
-        <v>148</v>
-      </c>
-      <c r="C41" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="D41" s="34" t="s">
-        <v>378</v>
-      </c>
-      <c r="E41" s="165"/>
-      <c r="F41" s="179"/>
-    </row>
-    <row r="42" spans="1:6" s="16" customFormat="1" ht="34">
-      <c r="A42" s="53" t="s">
-        <v>363</v>
-      </c>
-      <c r="B42" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="C42" s="67" t="s">
-        <v>338</v>
-      </c>
-      <c r="D42" s="34" t="s">
-        <v>379</v>
-      </c>
-      <c r="E42" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="F42" s="68" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="19" customHeight="1">
-      <c r="A43" s="160" t="s">
-        <v>364</v>
       </c>
       <c r="B43" t="s">
         <v>36</v>
       </c>
       <c r="C43" t="s">
+        <v>338</v>
+      </c>
+      <c r="E43" s="175" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="19" customHeight="1">
+      <c r="A44" s="154"/>
+      <c r="B44" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="E44" s="177"/>
+      <c r="F44" s="22"/>
+    </row>
+    <row r="45" spans="1:6" ht="17" customHeight="1">
+      <c r="A45" s="153" t="s">
+        <v>363</v>
+      </c>
+      <c r="B45" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="D45" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="E43" s="177" t="s">
+      <c r="E45" s="168" t="s">
+        <v>225</v>
+      </c>
+      <c r="F45" s="188" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="167"/>
+      <c r="B46" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C46" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D46" t="s">
+        <v>339</v>
+      </c>
+      <c r="E46" s="169"/>
+      <c r="F46" s="194"/>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="154"/>
+      <c r="B47" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="C47" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="D47" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="E47" s="170"/>
+      <c r="F47" s="190"/>
+    </row>
+    <row r="48" spans="1:6" ht="34">
+      <c r="A48" s="21" t="s">
+        <v>652</v>
+      </c>
+      <c r="B48" s="64"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="142" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" ht="19" customHeight="1">
-      <c r="A44" s="162"/>
-      <c r="B44" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="C44" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="D44" s="34" t="s">
+      <c r="F48" s="6" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="34">
+      <c r="A49" s="52" t="s">
+        <v>366</v>
+      </c>
+      <c r="B49" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="66" t="s">
+        <v>336</v>
+      </c>
+      <c r="D49" s="33" t="s">
         <v>377</v>
       </c>
-      <c r="E44" s="179"/>
-      <c r="F44" s="23"/>
-    </row>
-    <row r="45" spans="1:6" ht="17" customHeight="1">
-      <c r="A45" s="160" t="s">
-        <v>365</v>
-      </c>
-      <c r="B45" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C45" s="36" t="s">
-        <v>317</v>
-      </c>
-      <c r="D45" s="20" t="s">
-        <v>342</v>
-      </c>
-      <c r="E45" s="163" t="s">
-        <v>227</v>
-      </c>
-      <c r="F45" s="180" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="161"/>
-      <c r="B46" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="C46" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D46" t="s">
-        <v>341</v>
-      </c>
-      <c r="E46" s="164"/>
-      <c r="F46" s="181"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="162"/>
-      <c r="B47" s="64" t="s">
-        <v>216</v>
-      </c>
-      <c r="C47" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="D47" s="45" t="s">
-        <v>343</v>
-      </c>
-      <c r="E47" s="165"/>
-      <c r="F47" s="182"/>
-    </row>
-    <row r="48" spans="1:6" ht="34">
-      <c r="A48" s="22" t="s">
-        <v>654</v>
-      </c>
-      <c r="B48" s="65"/>
-      <c r="C48" s="19"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="143" t="s">
-        <v>657</v>
-      </c>
-      <c r="F48" s="6" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="34">
-      <c r="A49" s="53" t="s">
-        <v>368</v>
-      </c>
-      <c r="B49" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="C49" s="67" t="s">
-        <v>338</v>
-      </c>
-      <c r="D49" s="34" t="s">
-        <v>379</v>
-      </c>
-      <c r="E49" s="48" t="s">
-        <v>226</v>
-      </c>
-      <c r="F49" s="68" t="s">
-        <v>375</v>
+      <c r="E49" s="47" t="s">
+        <v>224</v>
+      </c>
+      <c r="F49" s="67" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="160" t="s">
-        <v>369</v>
+      <c r="A50" s="153" t="s">
+        <v>367</v>
       </c>
       <c r="B50" t="s">
         <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>340</v>
-      </c>
-      <c r="E50" s="177" t="s">
-        <v>394</v>
+        <v>338</v>
+      </c>
+      <c r="E50" s="175" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="20" customHeight="1">
-      <c r="A51" s="162"/>
+      <c r="A51" s="154"/>
       <c r="B51" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="D51" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="E51" s="179"/>
-      <c r="F51" s="23"/>
+        <v>337</v>
+      </c>
+      <c r="D51" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="E51" s="177"/>
+      <c r="F51" s="22"/>
     </row>
     <row r="52" spans="1:6" ht="20" customHeight="1">
-      <c r="A52" s="174" t="s">
-        <v>380</v>
+      <c r="A52" s="184" t="s">
+        <v>378</v>
       </c>
       <c r="B52" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C52" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="D52" s="66"/>
-      <c r="E52" s="163" t="s">
-        <v>226</v>
-      </c>
-      <c r="F52" s="177" t="s">
+      <c r="C52" s="19" t="s">
+        <v>379</v>
+      </c>
+      <c r="D52" s="65"/>
+      <c r="E52" s="168" t="s">
+        <v>224</v>
+      </c>
+      <c r="F52" s="175" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="185"/>
+      <c r="B53" s="59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" t="s">
+        <v>389</v>
+      </c>
+      <c r="D53" t="s">
+        <v>390</v>
+      </c>
+      <c r="E53" s="169"/>
+      <c r="F53" s="176"/>
+    </row>
+    <row r="54" spans="1:6" ht="34">
+      <c r="A54" s="186"/>
+      <c r="B54" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="C54" s="66" t="s">
+        <v>336</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="E54" s="170"/>
+      <c r="F54" s="177"/>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="153" t="s">
+        <v>380</v>
+      </c>
+      <c r="B55" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" t="s">
+        <v>338</v>
+      </c>
+      <c r="E55" s="153" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="17">
+      <c r="A56" s="154"/>
+      <c r="B56" s="60" t="s">
+        <v>146</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="D56" s="33" t="s">
+        <v>375</v>
+      </c>
+      <c r="E56" s="154"/>
+      <c r="F56" s="22"/>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="153" t="s">
+        <v>382</v>
+      </c>
+      <c r="B57" s="61" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="71" t="s">
+        <v>315</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>340</v>
+      </c>
+      <c r="E57" s="193" t="s">
+        <v>225</v>
+      </c>
+      <c r="F57" s="178" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="16" customHeight="1">
+      <c r="A58" s="167"/>
+      <c r="B58" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E58" s="191"/>
+      <c r="F58" s="179"/>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="167"/>
+      <c r="B59" s="61" t="s">
+        <v>214</v>
+      </c>
+      <c r="C59" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="D59" s="19" t="s">
+        <v>341</v>
+      </c>
+      <c r="E59" s="191"/>
+      <c r="F59" s="179"/>
+    </row>
+    <row r="60" spans="1:6" ht="17">
+      <c r="A60" s="167"/>
+      <c r="B60" s="61" t="s">
+        <v>383</v>
+      </c>
+      <c r="C60" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="E60" s="191"/>
+      <c r="F60" s="65" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="17">
+      <c r="A61" s="154"/>
+      <c r="B61" s="63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61" s="44" t="s">
+        <v>385</v>
+      </c>
+      <c r="D61" s="44" t="s">
+        <v>413</v>
+      </c>
+      <c r="E61" s="192"/>
+      <c r="F61" s="33" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="19" customHeight="1">
+      <c r="A62" s="144" t="s">
+        <v>393</v>
+      </c>
+      <c r="B62" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>395</v>
+      </c>
+      <c r="D62" s="16"/>
+      <c r="E62" s="115" t="s">
+        <v>224</v>
+      </c>
+      <c r="F62" s="143" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="25" customHeight="1">
+      <c r="A63" s="184" t="s">
+        <v>404</v>
+      </c>
+      <c r="B63" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="175"/>
-      <c r="B53" s="60" t="s">
-        <v>30</v>
-      </c>
-      <c r="C53" t="s">
-        <v>391</v>
-      </c>
-      <c r="D53" t="s">
-        <v>392</v>
-      </c>
-      <c r="E53" s="164"/>
-      <c r="F53" s="178"/>
-    </row>
-    <row r="54" spans="1:6" ht="34">
-      <c r="A54" s="176"/>
-      <c r="B54" s="53" t="s">
-        <v>148</v>
-      </c>
-      <c r="C54" s="67" t="s">
-        <v>338</v>
-      </c>
-      <c r="D54" s="23" t="s">
-        <v>379</v>
-      </c>
-      <c r="E54" s="165"/>
-      <c r="F54" s="179"/>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="160" t="s">
-        <v>382</v>
-      </c>
-      <c r="B55" s="60" t="s">
+      <c r="D63" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="E63" s="169" t="s">
+        <v>224</v>
+      </c>
+      <c r="F63" s="141" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="185"/>
+      <c r="B64" s="58" t="s">
+        <v>214</v>
+      </c>
+      <c r="C64" t="s">
+        <v>397</v>
+      </c>
+      <c r="D64" s="19" t="s">
+        <v>403</v>
+      </c>
+      <c r="E64" s="169"/>
+      <c r="F64" s="140"/>
+    </row>
+    <row r="65" spans="1:6" s="16" customFormat="1" ht="17">
+      <c r="A65" s="186"/>
+      <c r="B65" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="C55" t="s">
-        <v>340</v>
-      </c>
-      <c r="E55" s="160" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" ht="17">
-      <c r="A56" s="162"/>
-      <c r="B56" s="61" t="s">
-        <v>148</v>
-      </c>
-      <c r="C56" s="16" t="s">
-        <v>339</v>
-      </c>
-      <c r="D56" s="34" t="s">
-        <v>377</v>
-      </c>
-      <c r="E56" s="162"/>
-      <c r="F56" s="23"/>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="160" t="s">
-        <v>384</v>
-      </c>
-      <c r="B57" s="62" t="s">
+      <c r="C65" s="44" t="s">
+        <v>651</v>
+      </c>
+      <c r="D65" s="44" t="s">
+        <v>308</v>
+      </c>
+      <c r="E65" s="170"/>
+      <c r="F65" s="141" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" s="18" customFormat="1" ht="17">
+      <c r="A66" s="49" t="s">
+        <v>405</v>
+      </c>
+      <c r="B66" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" s="21" t="s">
+        <v>645</v>
+      </c>
+      <c r="D66" s="21" t="s">
+        <v>309</v>
+      </c>
+      <c r="E66" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="F66" s="43" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" s="15" customFormat="1">
+      <c r="A67" s="49" t="s">
+        <v>406</v>
+      </c>
+      <c r="B67" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D67" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E67" s="21" t="s">
+        <v>666</v>
+      </c>
+      <c r="F67" s="43"/>
+    </row>
+    <row r="68" spans="1:6" s="15" customFormat="1">
+      <c r="A68" s="49" t="s">
+        <v>407</v>
+      </c>
+      <c r="B68" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C68" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="21"/>
+      <c r="E68" s="145" t="s">
+        <v>667</v>
+      </c>
+      <c r="F68" s="43"/>
+    </row>
+    <row r="69" spans="1:6" s="15" customFormat="1">
+      <c r="A69" s="49" t="s">
+        <v>408</v>
+      </c>
+      <c r="B69" s="62" t="s">
+        <v>31</v>
+      </c>
+      <c r="C69" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D69" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>668</v>
+      </c>
+      <c r="F69" s="43"/>
+    </row>
+    <row r="70" spans="1:6" s="15" customFormat="1">
+      <c r="A70" s="49" t="s">
+        <v>409</v>
+      </c>
+      <c r="B70" s="62" t="s">
+        <v>41</v>
+      </c>
+      <c r="C70" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="21"/>
+      <c r="E70" s="145" t="s">
+        <v>669</v>
+      </c>
+      <c r="F70" s="43"/>
+    </row>
+    <row r="71" spans="1:6" s="15" customFormat="1" ht="17">
+      <c r="A71" s="183" t="s">
+        <v>410</v>
+      </c>
+      <c r="B71" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="C57" s="72" t="s">
+      <c r="C71" s="35" t="s">
+        <v>315</v>
+      </c>
+      <c r="D71" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="E71" s="168" t="s">
+        <v>225</v>
+      </c>
+      <c r="F71" s="68" t="s">
         <v>317</v>
       </c>
-      <c r="D57" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="E57" s="189" t="s">
-        <v>227</v>
-      </c>
-      <c r="F57" s="193" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="16" customHeight="1">
-      <c r="A58" s="161"/>
-      <c r="B58" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="C58" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="E58" s="190"/>
-      <c r="F58" s="194"/>
-    </row>
-    <row r="59" spans="1:6">
-      <c r="A59" s="161"/>
-      <c r="B59" s="62" t="s">
-        <v>216</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>321</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>343</v>
-      </c>
-      <c r="E59" s="190"/>
-      <c r="F59" s="194"/>
-    </row>
-    <row r="60" spans="1:6" ht="17">
-      <c r="A60" s="161"/>
-      <c r="B60" s="62" t="s">
-        <v>385</v>
-      </c>
-      <c r="C60" s="9" t="s">
+    </row>
+    <row r="72" spans="1:6" s="15" customFormat="1">
+      <c r="A72" s="173"/>
+      <c r="B72" s="61" t="s">
+        <v>146</v>
+      </c>
+      <c r="C72" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D72" t="s">
+        <v>318</v>
+      </c>
+      <c r="E72" s="169"/>
+      <c r="F72" s="68"/>
+    </row>
+    <row r="73" spans="1:6" s="15" customFormat="1">
+      <c r="A73" s="174"/>
+      <c r="B73" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="44" t="s">
+        <v>319</v>
+      </c>
+      <c r="D73" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="E73" s="170"/>
+      <c r="F73" s="55"/>
+    </row>
+    <row r="74" spans="1:6" s="15" customFormat="1">
+      <c r="A74" s="56" t="s">
+        <v>411</v>
+      </c>
+      <c r="B74" s="64"/>
+      <c r="C74" s="18"/>
+      <c r="D74" s="18"/>
+      <c r="E74" s="50" t="s">
         <v>386</v>
       </c>
-      <c r="D60" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="E60" s="190"/>
-      <c r="F60" s="66" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="17">
-      <c r="A61" s="162"/>
-      <c r="B61" s="64" t="s">
-        <v>30</v>
-      </c>
-      <c r="C61" s="45" t="s">
-        <v>387</v>
-      </c>
-      <c r="D61" s="45" t="s">
+      <c r="F74" s="55"/>
+    </row>
+    <row r="75" spans="1:6" ht="34">
+      <c r="A75" s="153" t="s">
+        <v>414</v>
+      </c>
+      <c r="B75" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="19" t="s">
         <v>415</v>
       </c>
-      <c r="E61" s="191"/>
-      <c r="F61" s="34" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" ht="19" customHeight="1">
-      <c r="A62" s="145" t="s">
-        <v>395</v>
-      </c>
-      <c r="B62" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" s="16" t="s">
+      <c r="D75" s="65" t="s">
+        <v>417</v>
+      </c>
+      <c r="E75" s="180" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="167"/>
+      <c r="B76" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C76" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="D76" s="9"/>
+      <c r="E76" s="181"/>
+    </row>
+    <row r="77" spans="1:6" ht="34">
+      <c r="A77" s="167"/>
+      <c r="B77" s="59" t="s">
+        <v>412</v>
+      </c>
+      <c r="C77" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="E77" s="181"/>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="167"/>
+      <c r="B78" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="71" t="s">
+        <v>301</v>
+      </c>
+      <c r="D78" s="75" t="s">
+        <v>418</v>
+      </c>
+      <c r="E78" s="181"/>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="154"/>
+      <c r="B79" s="60" t="s">
+        <v>214</v>
+      </c>
+      <c r="C79" s="44" t="s">
         <v>397</v>
       </c>
-      <c r="D62" s="16"/>
-      <c r="E62" s="116" t="s">
-        <v>226</v>
-      </c>
-      <c r="F62" s="144" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="25" customHeight="1">
-      <c r="A63" s="174" t="s">
-        <v>406</v>
-      </c>
-      <c r="B63" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
-        <v>398</v>
-      </c>
-      <c r="D63" s="55" t="s">
-        <v>402</v>
-      </c>
-      <c r="E63" s="164" t="s">
-        <v>226</v>
-      </c>
-      <c r="F63" s="142" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
-      <c r="A64" s="175"/>
-      <c r="B64" s="59" t="s">
-        <v>216</v>
-      </c>
-      <c r="C64" t="s">
-        <v>399</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>405</v>
-      </c>
-      <c r="E64" s="164"/>
-      <c r="F64" s="141"/>
-    </row>
-    <row r="65" spans="1:6" s="16" customFormat="1" ht="17">
-      <c r="A65" s="176"/>
-      <c r="B65" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65" s="45" t="s">
-        <v>653</v>
-      </c>
-      <c r="D65" s="45" t="s">
-        <v>310</v>
-      </c>
-      <c r="E65" s="165"/>
-      <c r="F65" s="142" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" s="19" customFormat="1" ht="17">
-      <c r="A66" s="50" t="s">
-        <v>407</v>
-      </c>
-      <c r="B66" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="C66" s="22" t="s">
-        <v>647</v>
-      </c>
-      <c r="D66" s="22" t="s">
-        <v>311</v>
-      </c>
-      <c r="E66" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="F66" s="44" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" s="15" customFormat="1">
-      <c r="A67" s="50" t="s">
-        <v>408</v>
-      </c>
-      <c r="B67" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C67" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D67" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E67" s="22" t="s">
-        <v>668</v>
-      </c>
-      <c r="F67" s="44"/>
-    </row>
-    <row r="68" spans="1:6" s="15" customFormat="1">
-      <c r="A68" s="50" t="s">
-        <v>409</v>
-      </c>
-      <c r="B68" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C68" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D68" s="22"/>
-      <c r="E68" s="146" t="s">
-        <v>669</v>
-      </c>
-      <c r="F68" s="44"/>
-    </row>
-    <row r="69" spans="1:6" s="15" customFormat="1">
-      <c r="A69" s="50" t="s">
-        <v>410</v>
-      </c>
-      <c r="B69" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D69" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E69" s="22" t="s">
-        <v>670</v>
-      </c>
-      <c r="F69" s="44"/>
-    </row>
-    <row r="70" spans="1:6" s="15" customFormat="1">
-      <c r="A70" s="50" t="s">
-        <v>411</v>
-      </c>
-      <c r="B70" s="63" t="s">
-        <v>41</v>
-      </c>
-      <c r="C70" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="D70" s="22"/>
-      <c r="E70" s="146" t="s">
-        <v>671</v>
-      </c>
-      <c r="F70" s="44"/>
-    </row>
-    <row r="71" spans="1:6" s="15" customFormat="1" ht="17">
-      <c r="A71" s="184" t="s">
-        <v>412</v>
-      </c>
-      <c r="B71" s="62" t="s">
-        <v>3</v>
-      </c>
-      <c r="C71" s="36" t="s">
-        <v>317</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>318</v>
-      </c>
-      <c r="E71" s="163" t="s">
-        <v>227</v>
-      </c>
-      <c r="F71" s="69" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" s="15" customFormat="1">
-      <c r="A72" s="185"/>
-      <c r="B72" s="62" t="s">
-        <v>148</v>
-      </c>
-      <c r="C72" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="D72" t="s">
-        <v>320</v>
-      </c>
-      <c r="E72" s="164"/>
-      <c r="F72" s="69"/>
-    </row>
-    <row r="73" spans="1:6" s="15" customFormat="1">
-      <c r="A73" s="186"/>
-      <c r="B73" s="64" t="s">
-        <v>216</v>
-      </c>
-      <c r="C73" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="D73" s="45" t="s">
-        <v>322</v>
-      </c>
-      <c r="E73" s="165"/>
-      <c r="F73" s="56"/>
-    </row>
-    <row r="74" spans="1:6" s="15" customFormat="1">
-      <c r="A74" s="57" t="s">
-        <v>413</v>
-      </c>
-      <c r="B74" s="65"/>
-      <c r="C74" s="19"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="51" t="s">
-        <v>388</v>
-      </c>
-      <c r="F74" s="56"/>
-    </row>
-    <row r="75" spans="1:6" ht="34">
-      <c r="A75" s="160" t="s">
-        <v>416</v>
-      </c>
-      <c r="B75" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="C75" s="20" t="s">
-        <v>417</v>
-      </c>
-      <c r="D75" s="66" t="s">
+      <c r="D79" s="44" t="s">
         <v>419</v>
       </c>
-      <c r="E75" s="195" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
-      <c r="A76" s="161"/>
-      <c r="B76" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="C76" s="9" t="s">
-        <v>418</v>
-      </c>
-      <c r="D76" s="9"/>
-      <c r="E76" s="196"/>
-    </row>
-    <row r="77" spans="1:6" ht="34">
-      <c r="A77" s="161"/>
-      <c r="B77" s="60" t="s">
-        <v>414</v>
-      </c>
-      <c r="C77" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>423</v>
-      </c>
-      <c r="E77" s="196"/>
-    </row>
-    <row r="78" spans="1:6">
-      <c r="A78" s="161"/>
-      <c r="B78" s="60" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" s="72" t="s">
-        <v>303</v>
-      </c>
-      <c r="D78" s="76" t="s">
-        <v>420</v>
-      </c>
-      <c r="E78" s="196"/>
-    </row>
-    <row r="79" spans="1:6">
-      <c r="A79" s="162"/>
-      <c r="B79" s="61" t="s">
-        <v>216</v>
-      </c>
-      <c r="C79" s="45" t="s">
-        <v>399</v>
-      </c>
-      <c r="D79" s="45" t="s">
-        <v>421</v>
-      </c>
-      <c r="E79" s="197"/>
-      <c r="F79" s="23"/>
+      <c r="E79" s="182"/>
+      <c r="F79" s="22"/>
     </row>
     <row r="80" spans="1:6" s="16" customFormat="1">
       <c r="A80" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="B80" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C80" s="44" t="s">
+        <v>423</v>
+      </c>
+      <c r="D80" s="44" t="s">
+        <v>424</v>
+      </c>
+      <c r="E80" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="F80" s="22"/>
+    </row>
+    <row r="81" spans="1:6" s="18" customFormat="1">
+      <c r="A81" s="18" t="s">
+        <v>426</v>
+      </c>
+      <c r="B81" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="C81" s="18" t="s">
         <v>427</v>
       </c>
-      <c r="B80" s="61" t="s">
+      <c r="D81" s="21"/>
+      <c r="E81" s="21" t="s">
+        <v>428</v>
+      </c>
+      <c r="F81" s="23"/>
+    </row>
+    <row r="82" spans="1:6" s="21" customFormat="1">
+      <c r="A82" s="21" t="s">
+        <v>436</v>
+      </c>
+      <c r="B82" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="C80" s="45" t="s">
-        <v>425</v>
-      </c>
-      <c r="D80" s="45" t="s">
-        <v>426</v>
-      </c>
-      <c r="E80" s="70" t="s">
-        <v>226</v>
-      </c>
-      <c r="F80" s="23"/>
-    </row>
-    <row r="81" spans="1:6" s="19" customFormat="1">
-      <c r="A81" s="19" t="s">
-        <v>428</v>
-      </c>
-      <c r="B81" s="65" t="s">
+      <c r="C82" s="21" t="s">
+        <v>435</v>
+      </c>
+      <c r="E82" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="F82" s="26"/>
+    </row>
+    <row r="83" spans="1:6" ht="35" customHeight="1">
+      <c r="A83" s="77" t="s">
+        <v>437</v>
+      </c>
+      <c r="B83" s="77" t="s">
         <v>36</v>
       </c>
-      <c r="C81" s="19" t="s">
-        <v>429</v>
-      </c>
-      <c r="D81" s="22"/>
-      <c r="E81" s="22" t="s">
-        <v>430</v>
-      </c>
-      <c r="F81" s="24"/>
-    </row>
-    <row r="82" spans="1:6" s="22" customFormat="1">
-      <c r="A82" s="22" t="s">
+      <c r="C83" s="77" t="s">
         <v>438</v>
       </c>
-      <c r="B82" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="C82" s="22" t="s">
-        <v>437</v>
-      </c>
-      <c r="E82" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="F82" s="27"/>
-    </row>
-    <row r="83" spans="1:6" ht="35" customHeight="1">
-      <c r="A83" s="78" t="s">
+      <c r="D83" s="26" t="s">
         <v>439</v>
       </c>
-      <c r="B83" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="C83" s="78" t="s">
+      <c r="E83" s="42" t="s">
+        <v>224</v>
+      </c>
+      <c r="F83" s="23"/>
+    </row>
+    <row r="84" spans="1:6" ht="17">
+      <c r="A84" s="183" t="s">
         <v>440</v>
       </c>
-      <c r="D83" s="27" t="s">
-        <v>441</v>
-      </c>
-      <c r="E83" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="F83" s="24"/>
-    </row>
-    <row r="84" spans="1:6" ht="17">
-      <c r="A84" s="184" t="s">
-        <v>442</v>
-      </c>
-      <c r="B84" s="60" t="s">
+      <c r="B84" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="36" t="s">
+      <c r="C84" s="35" t="s">
+        <v>451</v>
+      </c>
+      <c r="D84" t="s">
+        <v>452</v>
+      </c>
+      <c r="E84" s="168" t="s">
+        <v>224</v>
+      </c>
+      <c r="F84" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="D84" t="s">
-        <v>454</v>
-      </c>
-      <c r="E84" s="163" t="s">
-        <v>226</v>
-      </c>
-      <c r="F84" s="6" t="s">
-        <v>455</v>
-      </c>
     </row>
     <row r="85" spans="1:6" ht="17">
-      <c r="A85" s="185"/>
-      <c r="B85" s="60" t="s">
+      <c r="A85" s="173"/>
+      <c r="B85" s="59" t="s">
         <v>38</v>
       </c>
       <c r="C85" t="s">
+        <v>443</v>
+      </c>
+      <c r="D85" t="s">
+        <v>444</v>
+      </c>
+      <c r="E85" s="156"/>
+      <c r="F85" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" s="173"/>
+      <c r="B86" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C86" t="s">
+        <v>49</v>
+      </c>
+      <c r="D86" s="79" t="s">
         <v>445</v>
       </c>
-      <c r="D85" t="s">
+      <c r="E86" s="156"/>
+    </row>
+    <row r="87" spans="1:6" ht="17">
+      <c r="A87" s="174"/>
+      <c r="B87" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D87" s="78" t="s">
+        <v>534</v>
+      </c>
+      <c r="E87" s="170"/>
+      <c r="F87" s="70" t="s">
         <v>446</v>
       </c>
-      <c r="E85" s="170"/>
-      <c r="F85" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
-      <c r="A86" s="185"/>
-      <c r="B86" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="C86" t="s">
-        <v>51</v>
-      </c>
-      <c r="D86" s="80" t="s">
-        <v>447</v>
-      </c>
-      <c r="E86" s="170"/>
-    </row>
-    <row r="87" spans="1:6" ht="17">
-      <c r="A87" s="186"/>
-      <c r="B87" s="100" t="s">
-        <v>40</v>
-      </c>
-      <c r="C87" s="16" t="s">
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" s="183" t="s">
+        <v>537</v>
+      </c>
+      <c r="B88" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="D87" s="79" t="s">
+      <c r="C88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D88" s="6"/>
+      <c r="E88" s="153" t="s">
+        <v>139</v>
+      </c>
+      <c r="F88" s="175" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="17">
+      <c r="A89" s="173"/>
+      <c r="B89" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" t="s">
+        <v>53</v>
+      </c>
+      <c r="D89" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="E89" s="167"/>
+      <c r="F89" s="176"/>
+    </row>
+    <row r="90" spans="1:6" ht="17">
+      <c r="A90" s="174"/>
+      <c r="B90" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D90" s="22" t="s">
         <v>536</v>
       </c>
-      <c r="E87" s="165"/>
-      <c r="F87" s="71" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
-      <c r="A88" s="184" t="s">
-        <v>539</v>
-      </c>
-      <c r="B88" s="99" t="s">
-        <v>57</v>
-      </c>
-      <c r="C88" t="s">
-        <v>60</v>
-      </c>
-      <c r="D88" s="6"/>
-      <c r="E88" s="160" t="s">
-        <v>141</v>
-      </c>
-      <c r="F88" s="177" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" ht="17">
-      <c r="A89" s="185"/>
-      <c r="B89" s="100" t="s">
-        <v>58</v>
-      </c>
-      <c r="C89" t="s">
-        <v>55</v>
-      </c>
-      <c r="D89" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="E89" s="161"/>
-      <c r="F89" s="178"/>
-    </row>
-    <row r="90" spans="1:6" ht="17">
-      <c r="A90" s="186"/>
-      <c r="B90" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D90" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="E90" s="162"/>
-      <c r="F90" s="179"/>
+      <c r="E90" s="154"/>
+      <c r="F90" s="177"/>
     </row>
     <row r="91" spans="1:6" s="16" customFormat="1" ht="85">
       <c r="A91" s="16" t="s">
-        <v>443</v>
-      </c>
-      <c r="B91" s="61"/>
-      <c r="E91" s="24" t="s">
-        <v>626</v>
-      </c>
-      <c r="F91" s="23"/>
-    </row>
-    <row r="92" spans="1:6" s="19" customFormat="1" ht="34">
-      <c r="A92" s="19" t="s">
-        <v>444</v>
-      </c>
-      <c r="B92" s="65" t="s">
+        <v>441</v>
+      </c>
+      <c r="B91" s="60"/>
+      <c r="E91" s="23" t="s">
+        <v>624</v>
+      </c>
+      <c r="F91" s="22"/>
+    </row>
+    <row r="92" spans="1:6" s="18" customFormat="1" ht="34">
+      <c r="A92" s="18" t="s">
+        <v>442</v>
+      </c>
+      <c r="B92" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C92" s="81" t="s">
+      <c r="C92" s="80" t="s">
+        <v>448</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="E92" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F92" s="117" t="s">
         <v>450</v>
       </c>
-      <c r="D92" s="19" t="s">
-        <v>451</v>
-      </c>
-      <c r="E92" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="F92" s="118" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" s="19" customFormat="1" ht="17">
-      <c r="A93" s="19" t="s">
+    </row>
+    <row r="93" spans="1:6" s="18" customFormat="1" ht="17">
+      <c r="A93" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="B93" s="64"/>
+      <c r="E93" s="82" t="s">
         <v>456</v>
       </c>
-      <c r="B93" s="65"/>
-      <c r="E93" s="83" t="s">
+      <c r="F93" s="23" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" s="18" customFormat="1" ht="32" customHeight="1">
+      <c r="A94" s="81" t="s">
+        <v>455</v>
+      </c>
+      <c r="B94" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="80" t="s">
+        <v>457</v>
+      </c>
+      <c r="D94" s="117" t="s">
         <v>458</v>
       </c>
-      <c r="F93" s="24" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" s="19" customFormat="1" ht="32" customHeight="1">
-      <c r="A94" s="82" t="s">
-        <v>457</v>
-      </c>
-      <c r="B94" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C94" s="81" t="s">
+      <c r="E94" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F94" s="23"/>
+    </row>
+    <row r="95" spans="1:6" s="18" customFormat="1">
+      <c r="A95" s="81" t="s">
         <v>459</v>
       </c>
-      <c r="D94" s="118" t="s">
+      <c r="B95" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95" s="18" t="s">
         <v>460</v>
       </c>
-      <c r="E94" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="F94" s="24"/>
-    </row>
-    <row r="95" spans="1:6" s="19" customFormat="1">
-      <c r="A95" s="82" t="s">
+      <c r="D95" s="21" t="s">
         <v>461</v>
       </c>
-      <c r="B95" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95" s="19" t="s">
+      <c r="E95" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F95" s="23"/>
+    </row>
+    <row r="96" spans="1:6" s="18" customFormat="1">
+      <c r="A96" s="81" t="s">
         <v>462</v>
       </c>
-      <c r="D95" s="22" t="s">
+      <c r="B96" s="64"/>
+      <c r="E96" s="88" t="s">
+        <v>465</v>
+      </c>
+      <c r="F96" s="23"/>
+    </row>
+    <row r="97" spans="1:6" s="18" customFormat="1">
+      <c r="A97" s="81" t="s">
         <v>463</v>
       </c>
-      <c r="E95" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="F95" s="24"/>
-    </row>
-    <row r="96" spans="1:6" s="19" customFormat="1">
-      <c r="A96" s="82" t="s">
+      <c r="B97" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="C97" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="B96" s="65"/>
-      <c r="E96" s="89" t="s">
+      <c r="D97" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="E97" s="18" t="s">
+        <v>466</v>
+      </c>
+      <c r="F97" s="23"/>
+    </row>
+    <row r="98" spans="1:6">
+      <c r="A98" s="163" t="s">
         <v>467</v>
       </c>
-      <c r="F96" s="24"/>
-    </row>
-    <row r="97" spans="1:6" s="19" customFormat="1">
-      <c r="A97" s="82" t="s">
-        <v>465</v>
-      </c>
-      <c r="B97" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C97" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="D97" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="E97" s="19" t="s">
-        <v>468</v>
-      </c>
-      <c r="F97" s="24"/>
-    </row>
-    <row r="98" spans="1:6">
-      <c r="A98" s="156" t="s">
-        <v>469</v>
-      </c>
-      <c r="B98" s="60" t="s">
+      <c r="B98" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C98" t="s">
+        <v>58</v>
+      </c>
+      <c r="D98" s="6"/>
+      <c r="E98" s="153" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="17">
+      <c r="A99" s="164"/>
+      <c r="B99" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C99" t="s">
+        <v>53</v>
+      </c>
+      <c r="D99" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="E99" s="167"/>
+    </row>
+    <row r="100" spans="1:6" ht="17">
+      <c r="A100" s="165"/>
+      <c r="B100" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="C98" t="s">
-        <v>60</v>
-      </c>
-      <c r="D98" s="6"/>
-      <c r="E98" s="160" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" ht="17">
-      <c r="A99" s="157"/>
-      <c r="B99" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="C99" t="s">
-        <v>55</v>
-      </c>
-      <c r="D99" s="6" t="s">
-        <v>665</v>
-      </c>
-      <c r="E99" s="161"/>
-    </row>
-    <row r="100" spans="1:6" ht="17">
-      <c r="A100" s="158"/>
-      <c r="B100" s="61" t="s">
-        <v>59</v>
-      </c>
       <c r="C100" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D100" s="23" t="s">
-        <v>666</v>
-      </c>
-      <c r="E100" s="162"/>
-      <c r="F100" s="23"/>
+        <v>53</v>
+      </c>
+      <c r="D100" s="22" t="s">
+        <v>664</v>
+      </c>
+      <c r="E100" s="154"/>
+      <c r="F100" s="22"/>
     </row>
     <row r="101" spans="1:6">
       <c r="A101" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="E63:E65"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="E37:E39"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="E31:E33"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A75:A79"/>
+    <mergeCell ref="A71:A73"/>
+    <mergeCell ref="E71:E73"/>
+    <mergeCell ref="E57:E61"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="E4:E6"/>
+    <mergeCell ref="A7:A12"/>
+    <mergeCell ref="E7:E12"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="E13:E16"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="F13:F16"/>
     <mergeCell ref="A22:A25"/>
     <mergeCell ref="F88:F90"/>
     <mergeCell ref="F57:F59"/>
@@ -11900,40 +12016,6 @@
     <mergeCell ref="A84:A87"/>
     <mergeCell ref="E84:E87"/>
     <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A13:A16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="A17:A19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="E4:E6"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="E7:E12"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A75:A79"/>
-    <mergeCell ref="A71:A73"/>
-    <mergeCell ref="E71:E73"/>
-    <mergeCell ref="E57:E61"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="E63:E65"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="E37:E39"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="A37:A39"/>
-    <mergeCell ref="A31:A33"/>
-    <mergeCell ref="E31:E33"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="A43:A44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -11942,18 +12024,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36682FAF-F21D-7A43-9699-649D8D8080E1}">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25:E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="24.5" customWidth="1"/>
+    <col min="3" max="3" width="33.1640625" customWidth="1"/>
     <col min="4" max="4" width="45.1640625" customWidth="1"/>
     <col min="5" max="5" width="71" customWidth="1"/>
     <col min="6" max="6" width="108.1640625" customWidth="1"/>
@@ -11970,275 +12052,275 @@
         <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="16" customFormat="1">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="44" t="s">
+        <v>430</v>
+      </c>
+      <c r="E2" s="44" t="s">
+        <v>434</v>
+      </c>
+      <c r="F2" s="16" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" s="16" customFormat="1">
+      <c r="A3" s="44" t="s">
+        <v>474</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="183" t="s">
+        <v>429</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>670</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="173"/>
+      <c r="E5" s="19" t="s">
+        <v>672</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="173"/>
+      <c r="E6" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="E2" s="45" t="s">
-        <v>436</v>
-      </c>
-      <c r="F2" s="16" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" s="16" customFormat="1">
-      <c r="A3" s="45" t="s">
-        <v>476</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="184" t="s">
+      <c r="F6" s="19" t="s">
         <v>431</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>672</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>676</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="185"/>
-      <c r="E5" s="20" t="s">
-        <v>674</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="185"/>
-      <c r="E6" s="20" t="s">
-        <v>434</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>433</v>
-      </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="186"/>
+      <c r="A7" s="174"/>
       <c r="B7" s="16"/>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
-      <c r="E7" s="45" t="s">
-        <v>673</v>
-      </c>
-      <c r="F7" s="45" t="s">
-        <v>677</v>
+      <c r="E7" s="44" t="s">
+        <v>671</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="160" t="s">
-        <v>172</v>
+      <c r="A8" s="153" t="s">
+        <v>170</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
-      </c>
-      <c r="E8" s="160" t="s">
-        <v>173</v>
+        <v>42</v>
+      </c>
+      <c r="E8" s="153" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="161"/>
+      <c r="A9" s="167"/>
       <c r="B9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="D9" t="s">
-        <v>174</v>
-      </c>
-      <c r="E9" s="161"/>
+        <v>172</v>
+      </c>
+      <c r="E9" s="167"/>
       <c r="F9" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="162"/>
+      <c r="A10" s="154"/>
       <c r="B10" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>449</v>
-      </c>
-      <c r="E10" s="162"/>
+        <v>447</v>
+      </c>
+      <c r="E10" s="154"/>
       <c r="F10" s="16" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" s="19" customFormat="1">
-      <c r="A11" s="106" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="18" customFormat="1">
+      <c r="A11" s="105" t="s">
+        <v>538</v>
+      </c>
+      <c r="B11" s="147" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="147" t="s">
+        <v>539</v>
+      </c>
+      <c r="D11" s="17"/>
+      <c r="E11" s="147" t="s">
         <v>540</v>
       </c>
-      <c r="B11" s="148" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" s="148" t="s">
-        <v>541</v>
-      </c>
-      <c r="D11" s="18"/>
-      <c r="E11" s="148" t="s">
-        <v>542</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:7" s="19" customFormat="1">
-      <c r="A12" s="184" t="s">
-        <v>667</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>314</v>
-      </c>
-      <c r="C12" s="18" t="s">
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" s="18" customFormat="1">
+      <c r="A12" s="183" t="s">
+        <v>665</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>312</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>676</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="168" t="s">
+        <v>225</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="174"/>
+      <c r="B13" s="44" t="s">
+        <v>677</v>
+      </c>
+      <c r="C13" s="44" t="s">
         <v>678</v>
       </c>
-      <c r="D12" s="18"/>
-      <c r="E12" s="163" t="s">
-        <v>227</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="186"/>
-      <c r="B13" s="45" t="s">
-        <v>679</v>
-      </c>
-      <c r="C13" s="45" t="s">
-        <v>680</v>
-      </c>
       <c r="D13" s="16"/>
-      <c r="E13" s="165"/>
+      <c r="E13" s="170"/>
       <c r="F13" s="16"/>
       <c r="G13" s="16"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="19" t="s">
-        <v>478</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>479</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>248</v>
-      </c>
-      <c r="F14" s="19"/>
+      <c r="C14" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>477</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" s="18"/>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="184" t="s">
-        <v>55</v>
+      <c r="A15" s="183" t="s">
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>470</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="183" t="s">
+        <v>471</v>
+      </c>
+      <c r="F15" s="95"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="174"/>
+      <c r="B16" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="184" t="s">
+      <c r="C16" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="F15" s="96"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="186"/>
-      <c r="B16" s="16" t="s">
-        <v>474</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>475</v>
-      </c>
       <c r="D16" s="16"/>
-      <c r="E16" s="186"/>
+      <c r="E16" s="174"/>
       <c r="F16" s="16"/>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="198" t="s">
-        <v>68</v>
+      <c r="A17" s="197" t="s">
+        <v>66</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>249</v>
-      </c>
-      <c r="E17" s="160" t="s">
         <v>247</v>
       </c>
+      <c r="E17" s="153" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="18" spans="1:6" s="5" customFormat="1">
-      <c r="A18" s="199"/>
-      <c r="B18" s="35" t="s">
+      <c r="A18" s="198"/>
+      <c r="B18" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="162"/>
-      <c r="F18" s="35"/>
+      <c r="C18" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="E18" s="154"/>
+      <c r="F18" s="34"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="200" t="s">
-        <v>66</v>
+      <c r="A19" s="199" t="s">
+        <v>64</v>
       </c>
       <c r="B19" t="s">
         <v>31</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="161" t="s">
-        <v>142</v>
+        <v>74</v>
+      </c>
+      <c r="E19" s="167" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" s="199"/>
+      <c r="A20" s="198"/>
       <c r="B20" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D20" s="16"/>
-      <c r="E20" s="162"/>
+      <c r="E20" s="154"/>
       <c r="F20" s="16" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="18" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="16" t="s">
@@ -12248,151 +12330,185 @@
         <v>32</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="16" customFormat="1">
       <c r="A22" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>370</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="E22" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="F22" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="B22" s="45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>372</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>374</v>
-      </c>
-      <c r="E22" s="70" t="s">
-        <v>227</v>
-      </c>
-      <c r="F22" s="16" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="160" t="s">
+    </row>
+    <row r="23" spans="1:6" s="16" customFormat="1">
+      <c r="A23" s="44" t="s">
+        <v>704</v>
+      </c>
+      <c r="B23" s="44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>705</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>706</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="18" customFormat="1">
+      <c r="A24" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="E24" s="18" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="153" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="D25" s="9"/>
+      <c r="E25" s="175" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="154"/>
+      <c r="B26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="B23" t="s">
+      <c r="D26" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="177"/>
+      <c r="F26" s="16" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="16" customFormat="1" ht="17">
+      <c r="A27" s="149" t="s">
+        <v>694</v>
+      </c>
+      <c r="C27" s="44"/>
+      <c r="D27" s="44"/>
+      <c r="E27" s="150" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="153" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="153" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="154"/>
+      <c r="B29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="154"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="1:6" s="16" customFormat="1">
+      <c r="A30" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>483</v>
-      </c>
-      <c r="D23" s="9"/>
-      <c r="E23" s="177" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="162"/>
-      <c r="B24" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="45" t="s">
-        <v>74</v>
-      </c>
-      <c r="E24" s="179"/>
-      <c r="F24" s="16" t="s">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" s="16" customFormat="1" ht="17">
-      <c r="A25" s="150" t="s">
-        <v>696</v>
-      </c>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="151" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="160" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="160" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="162"/>
-      <c r="B27" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="162"/>
-      <c r="F27" s="16"/>
-    </row>
-    <row r="28" spans="1:6" s="16" customFormat="1">
-      <c r="A28" s="16" t="s">
+      <c r="C30" s="21" t="s">
+        <v>479</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="B28" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>481</v>
-      </c>
-      <c r="D28" s="19"/>
-      <c r="E28" s="16" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="16" t="s">
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="16" t="s">
+        <v>311</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>312</v>
+      </c>
+      <c r="C31" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="D31" s="16"/>
+      <c r="E31" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="C29" s="16" t="s">
-        <v>315</v>
-      </c>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16" t="s">
-        <v>316</v>
-      </c>
-      <c r="F29" s="16"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="22" t="s">
-        <v>383</v>
-      </c>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="F30" s="22" t="s">
-        <v>390</v>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="21" t="s">
+        <v>381</v>
+      </c>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18" t="s">
+        <v>387</v>
+      </c>
+      <c r="F32" s="21" t="s">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="E19:E20"/>
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="E15:E16"/>
@@ -12400,14 +12516,6 @@
     <mergeCell ref="E8:E10"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E19:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12415,11 +12523,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9166920C-6A53-344D-B9EE-8A7ED94EDECA}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E39" sqref="E39"/>
+    <sheetView zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -12429,612 +12537,682 @@
     <col min="3" max="3" width="51.83203125" customWidth="1"/>
     <col min="4" max="4" width="55.1640625" style="6" customWidth="1"/>
     <col min="5" max="5" width="38.6640625" customWidth="1"/>
-    <col min="6" max="6" width="59.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="62" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="126" customFormat="1" ht="20">
-      <c r="A1" s="126" t="s">
+    <row r="1" spans="1:6" s="125" customFormat="1" ht="20">
+      <c r="A1" s="125" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="126" t="s">
-        <v>684</v>
-      </c>
-      <c r="C1" s="126" t="s">
+      <c r="B1" s="125" t="s">
+        <v>682</v>
+      </c>
+      <c r="C1" s="125" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="102" t="s">
-        <v>117</v>
-      </c>
-      <c r="E1" s="126" t="s">
+      <c r="D1" s="101" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="E1" s="125" t="s">
+        <v>113</v>
+      </c>
+      <c r="F1" s="101" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="16" customFormat="1">
+    <row r="2" spans="1:6" s="16" customFormat="1">
       <c r="A2" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="23"/>
-    </row>
-    <row r="3" spans="1:7" s="19" customFormat="1" ht="17">
-      <c r="A3" s="160" t="s">
+      <c r="F2" s="22"/>
+    </row>
+    <row r="3" spans="1:6" s="18" customFormat="1" ht="17">
+      <c r="A3" s="153" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="202" t="s">
-        <v>226</v>
-      </c>
-      <c r="F3" s="24"/>
-    </row>
-    <row r="4" spans="1:7" s="19" customFormat="1" ht="17">
-      <c r="A4" s="162"/>
-      <c r="B4" s="22" t="s">
-        <v>487</v>
+      <c r="E3" s="200" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:6" s="18" customFormat="1" ht="17">
+      <c r="A4" s="154"/>
+      <c r="B4" s="21" t="s">
+        <v>485</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>484</v>
+      </c>
+      <c r="D4" s="26" t="s">
         <v>486</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>488</v>
-      </c>
-      <c r="E4" s="203"/>
-      <c r="F4" s="24" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" s="19" customFormat="1" ht="17">
-      <c r="A5" s="19" t="s">
+      <c r="E4" s="201"/>
+      <c r="F4" s="23" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="18" customFormat="1" ht="17">
+      <c r="A5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="F5" s="24" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" s="19" customFormat="1" ht="34">
-      <c r="A6" s="78" t="s">
+      <c r="E5" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="18" customFormat="1" ht="34">
+      <c r="A6" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="50" t="s">
-        <v>663</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>662</v>
-      </c>
-      <c r="E6" s="43" t="s">
+      <c r="C6" s="49" t="s">
+        <v>661</v>
+      </c>
+      <c r="D6" s="26" t="s">
+        <v>660</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>225</v>
+      </c>
+      <c r="F6" s="24" t="s">
         <v>227</v>
       </c>
-      <c r="F6" s="25" t="s">
+    </row>
+    <row r="7" spans="1:6" s="18" customFormat="1" ht="17">
+      <c r="A7" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="18" customFormat="1" ht="17">
+      <c r="A8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="18" customFormat="1" ht="17">
+      <c r="A9" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" s="19" customFormat="1" ht="17">
-      <c r="A7" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" s="19" customFormat="1" ht="17">
-      <c r="A8" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="19" customFormat="1" ht="17">
-      <c r="A9" s="19" t="s">
+      <c r="D9" s="23"/>
+      <c r="E9" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="B9" s="19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="F9" s="24" t="s">
+      <c r="F9" s="23" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:7" s="16" customFormat="1" ht="17">
+    <row r="10" spans="1:6" s="16" customFormat="1" ht="17">
       <c r="A10" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="23"/>
+      <c r="D10" s="22"/>
       <c r="E10" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>90</v>
+      </c>
+      <c r="F10" s="22" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="18" customFormat="1">
-      <c r="A12" s="160" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="17" customFormat="1">
+      <c r="A12" s="153" t="s">
+        <v>241</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="153" t="s">
+        <v>700</v>
+      </c>
+      <c r="F12" s="25"/>
+    </row>
+    <row r="13" spans="1:6" s="15" customFormat="1">
+      <c r="A13" s="167"/>
+      <c r="B13" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="211" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="70"/>
+      <c r="E13" s="167"/>
+      <c r="F13" s="70"/>
+    </row>
+    <row r="14" spans="1:6" s="16" customFormat="1" ht="17" customHeight="1">
+      <c r="A14" s="154"/>
+      <c r="B14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>697</v>
+      </c>
+      <c r="E14" s="154"/>
+      <c r="F14" s="22" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="15" customFormat="1" ht="17">
+      <c r="A15" s="153" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="C15" s="211" t="s">
+        <v>696</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>697</v>
+      </c>
+      <c r="E15" s="168" t="s">
+        <v>701</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17">
+      <c r="A16" s="154"/>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E16" s="170"/>
+      <c r="F16" s="6" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" s="16" customFormat="1" ht="60">
+      <c r="A17" s="153" t="s">
+        <v>683</v>
+      </c>
+      <c r="B17" s="148" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="152" t="s">
+        <v>693</v>
+      </c>
+      <c r="D17" s="151" t="s">
+        <v>692</v>
+      </c>
+      <c r="E17" s="175" t="s">
+        <v>685</v>
+      </c>
+      <c r="F17" s="175" t="s">
+        <v>689</v>
+      </c>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" s="16" customFormat="1" ht="17">
+      <c r="A18" s="167"/>
+      <c r="B18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="176"/>
+      <c r="F18" s="176"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" s="16" customFormat="1">
+      <c r="A19" s="154"/>
+      <c r="B19" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="177"/>
+      <c r="F19" s="177"/>
+    </row>
+    <row r="20" spans="1:7" s="16" customFormat="1" ht="17">
+      <c r="A20" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>686</v>
+      </c>
+      <c r="F20" s="22"/>
+    </row>
+    <row r="21" spans="1:7" s="17" customFormat="1">
+      <c r="A21" s="153" t="s">
+        <v>242</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="153" t="s">
+        <v>703</v>
+      </c>
+      <c r="F21" s="25"/>
+    </row>
+    <row r="22" spans="1:7" s="15" customFormat="1">
+      <c r="A22" s="167"/>
+      <c r="B22" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" s="211" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="70"/>
+      <c r="E22" s="167"/>
+      <c r="F22" s="70"/>
+    </row>
+    <row r="23" spans="1:7" s="16" customFormat="1" ht="17" customHeight="1">
+      <c r="A23" s="154"/>
+      <c r="B23" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>696</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>697</v>
+      </c>
+      <c r="E23" s="154"/>
+      <c r="F23" s="22" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" s="15" customFormat="1" ht="17">
+      <c r="A24" s="153" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>699</v>
+      </c>
+      <c r="C24" s="211" t="s">
+        <v>696</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>697</v>
+      </c>
+      <c r="E24" s="168" t="s">
+        <v>701</v>
+      </c>
+      <c r="F24" s="22" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17">
+      <c r="A25" s="154"/>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E25" s="170"/>
+      <c r="F25" s="6" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" s="16" customFormat="1" ht="60">
+      <c r="A26" s="153" t="s">
+        <v>687</v>
+      </c>
+      <c r="B26" s="148" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="152" t="s">
+        <v>693</v>
+      </c>
+      <c r="D26" s="151" t="s">
+        <v>691</v>
+      </c>
+      <c r="E26" s="175" t="s">
+        <v>688</v>
+      </c>
+      <c r="F26" s="175" t="s">
+        <v>690</v>
+      </c>
+      <c r="G26" s="17"/>
+    </row>
+    <row r="27" spans="1:7" s="16" customFormat="1" ht="17">
+      <c r="A27" s="167"/>
+      <c r="B27" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="70" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="176"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" s="16" customFormat="1">
+      <c r="A28" s="154"/>
+      <c r="B28" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="22"/>
+      <c r="E28" s="177"/>
+      <c r="F28" s="177"/>
+    </row>
+    <row r="29" spans="1:7" s="18" customFormat="1" ht="17">
+      <c r="A29" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="B12" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="160" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="26"/>
-    </row>
-    <row r="13" spans="1:7" s="16" customFormat="1">
-      <c r="A13" s="162"/>
-      <c r="B13" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="162"/>
-      <c r="F13" s="23"/>
-    </row>
-    <row r="14" spans="1:7" ht="17">
-      <c r="A14" s="136" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E14" s="21" t="s">
+      <c r="F29" s="23"/>
+    </row>
+    <row r="30" spans="1:7" ht="17">
+      <c r="A30" s="153" t="s">
+        <v>21</v>
+      </c>
+      <c r="B30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>49</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="168" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="20" customHeight="1">
+      <c r="A31" s="167"/>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="E31" s="169"/>
+      <c r="F31" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="16" customFormat="1" ht="17">
+      <c r="A32" s="154"/>
+      <c r="B32" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="170"/>
+      <c r="F32" s="22"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="163" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" t="s">
+        <v>55</v>
+      </c>
+      <c r="C33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E33" s="153" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="17">
+      <c r="A34" s="164"/>
+      <c r="B34" t="s">
+        <v>56</v>
+      </c>
+      <c r="C34" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="E34" s="167"/>
+    </row>
+    <row r="35" spans="1:6" s="16" customFormat="1" ht="17">
+      <c r="A35" s="165"/>
+      <c r="B35" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D35" s="22" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="154"/>
+      <c r="F35" s="22"/>
+    </row>
+    <row r="36" spans="1:6" s="16" customFormat="1" ht="17">
+      <c r="A36" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="22"/>
+      <c r="E36" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="F36" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="16" customFormat="1" ht="60">
-      <c r="A15" s="160" t="s">
-        <v>685</v>
-      </c>
-      <c r="B15" s="149" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="153" t="s">
-        <v>695</v>
-      </c>
-      <c r="D15" s="152" t="s">
-        <v>694</v>
-      </c>
-      <c r="E15" s="177" t="s">
-        <v>687</v>
-      </c>
-      <c r="F15" s="177" t="s">
-        <v>691</v>
-      </c>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:7" s="16" customFormat="1" ht="17">
-      <c r="A16" s="161"/>
-      <c r="B16" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="178"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="15"/>
-    </row>
-    <row r="17" spans="1:7" s="16" customFormat="1">
-      <c r="A17" s="162"/>
-      <c r="B17" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="179"/>
-      <c r="F17" s="179"/>
-    </row>
-    <row r="18" spans="1:7" s="16" customFormat="1" ht="17">
-      <c r="A18" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B18" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="23" t="s">
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="164" t="s">
+        <v>632</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="28"/>
+      <c r="E37" s="169" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="17">
+      <c r="A38" s="164"/>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>688</v>
-      </c>
-      <c r="F18" s="23"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="160" t="s">
-        <v>244</v>
-      </c>
-      <c r="B19" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
-      <c r="E19" s="160" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="16" customFormat="1">
-      <c r="A20" s="162"/>
-      <c r="B20" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="D20" s="28"/>
-      <c r="E20" s="162"/>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" spans="1:7" ht="17">
-      <c r="A21" s="136" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C21" t="s">
-        <v>44</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="16" customFormat="1" ht="60">
-      <c r="A22" s="160" t="s">
-        <v>689</v>
-      </c>
-      <c r="B22" s="149" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="153" t="s">
-        <v>695</v>
-      </c>
-      <c r="D22" s="152" t="s">
-        <v>693</v>
-      </c>
-      <c r="E22" s="177" t="s">
-        <v>690</v>
-      </c>
-      <c r="F22" s="177" t="s">
-        <v>692</v>
-      </c>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:7" s="16" customFormat="1" ht="17">
-      <c r="A23" s="161"/>
-      <c r="B23" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="71" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" s="16" customFormat="1">
-      <c r="A24" s="162"/>
-      <c r="B24" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="179"/>
-      <c r="F24" s="179"/>
-    </row>
-    <row r="25" spans="1:7" s="19" customFormat="1" ht="17">
-      <c r="A25" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="24" t="s">
+      <c r="D38" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" s="169"/>
+      <c r="F38" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="17">
+      <c r="A39" s="164"/>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
         <v>49</v>
       </c>
-      <c r="E25" s="19" t="s">
-        <v>245</v>
-      </c>
-      <c r="F25" s="24"/>
-    </row>
-    <row r="26" spans="1:7" ht="17">
-      <c r="A26" s="160" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="E26" s="163" t="s">
-        <v>226</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="20" customHeight="1">
-      <c r="A27" s="161"/>
-      <c r="B27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E27" s="164"/>
-      <c r="F27" s="6" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="16" customFormat="1" ht="17">
-      <c r="A28" s="162"/>
-      <c r="B28" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="165"/>
-      <c r="F28" s="23"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="156" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="160" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="17">
-      <c r="A30" s="157"/>
-      <c r="B30" t="s">
-        <v>58</v>
-      </c>
-      <c r="C30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E30" s="161"/>
-    </row>
-    <row r="31" spans="1:7" s="16" customFormat="1" ht="17">
-      <c r="A31" s="158"/>
-      <c r="B31" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="E31" s="162"/>
-      <c r="F31" s="23"/>
-    </row>
-    <row r="32" spans="1:7" s="16" customFormat="1" ht="17">
-      <c r="A32" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="16" t="s">
-        <v>208</v>
-      </c>
-      <c r="F32" s="23" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="157" t="s">
-        <v>634</v>
-      </c>
-      <c r="B33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="164" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="17">
-      <c r="A34" s="157"/>
-      <c r="B34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34" s="6" t="s">
+      <c r="D39" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" s="169"/>
+      <c r="F39" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="16" customFormat="1" ht="17">
+      <c r="A40" s="165"/>
+      <c r="B40" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C40" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="164"/>
-      <c r="F34" s="6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="17">
-      <c r="A35" s="157"/>
-      <c r="B35" t="s">
-        <v>80</v>
-      </c>
-      <c r="C35" t="s">
-        <v>51</v>
-      </c>
-      <c r="D35" s="6" t="s">
+      <c r="D40" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="E35" s="164"/>
-      <c r="F35" s="6" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" s="16" customFormat="1" ht="17">
-      <c r="A36" s="158"/>
-      <c r="B36" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C36" s="16" t="s">
+      <c r="E40" s="170"/>
+      <c r="F40" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="D36" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="E36" s="165"/>
-      <c r="F36" s="23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="30"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="30"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="30"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="201"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="201"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="29"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="29"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="29"/>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" s="202"/>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" s="202"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="23">
+    <mergeCell ref="F17:F19"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="A26:A28"/>
     <mergeCell ref="E26:E28"/>
+    <mergeCell ref="F26:F28"/>
+    <mergeCell ref="A21:A23"/>
+    <mergeCell ref="E21:E23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="E30:E32"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="E33:E36"/>
-    <mergeCell ref="E29:E31"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="F15:F17"/>
-    <mergeCell ref="E15:E17"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="E22:E24"/>
-    <mergeCell ref="F22:F24"/>
-    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E37:E40"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="E15:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
@@ -13071,359 +13249,359 @@
         <v>11</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="19">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="B2" s="98" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>488</v>
+      </c>
+      <c r="D2" s="17" t="s">
         <v>489</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="E2" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="128"/>
+    </row>
+    <row r="3" spans="1:6" s="18" customFormat="1" ht="17" customHeight="1">
+      <c r="A3" s="163" t="s">
+        <v>491</v>
+      </c>
+      <c r="B3" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="114" t="s">
+        <v>598</v>
+      </c>
+      <c r="D3" s="114" t="s">
+        <v>458</v>
+      </c>
+      <c r="E3" s="168" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="129"/>
+    </row>
+    <row r="4" spans="1:6" s="18" customFormat="1">
+      <c r="A4" s="164"/>
+      <c r="B4" s="99" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C4" s="100" t="s">
         <v>490</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>491</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" s="129"/>
-    </row>
-    <row r="3" spans="1:6" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A3" s="156" t="s">
+      <c r="D4" s="100" t="s">
+        <v>599</v>
+      </c>
+      <c r="E4" s="169"/>
+      <c r="F4" s="126"/>
+    </row>
+    <row r="5" spans="1:6" s="18" customFormat="1">
+      <c r="A5" s="165"/>
+      <c r="B5" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="113" t="s">
+        <v>628</v>
+      </c>
+      <c r="D5" s="113" t="s">
+        <v>627</v>
+      </c>
+      <c r="E5" s="170"/>
+      <c r="F5" s="127"/>
+    </row>
+    <row r="6" spans="1:6" s="18" customFormat="1" ht="17">
+      <c r="A6" s="74" t="s">
+        <v>492</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113" t="s">
+        <v>506</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" s="22" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="18" customFormat="1" ht="17">
+      <c r="A7" s="74" t="s">
         <v>493</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B7" s="64"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="96" t="s">
+        <v>498</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="18" customFormat="1" ht="17">
+      <c r="A8" s="74" t="s">
+        <v>494</v>
+      </c>
+      <c r="B8" s="64"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="96" t="s">
+        <v>501</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="18" customFormat="1" ht="17">
+      <c r="A9" s="74" t="s">
+        <v>495</v>
+      </c>
+      <c r="B9" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="115" t="s">
-        <v>600</v>
-      </c>
-      <c r="D3" s="115" t="s">
-        <v>460</v>
-      </c>
-      <c r="E3" s="163" t="s">
-        <v>226</v>
-      </c>
-      <c r="F3" s="130"/>
-    </row>
-    <row r="4" spans="1:6" s="19" customFormat="1">
-      <c r="A4" s="157"/>
-      <c r="B4" s="100" t="s">
+      <c r="C9" s="80"/>
+      <c r="D9" s="80" t="s">
+        <v>507</v>
+      </c>
+      <c r="E9" s="72" t="s">
+        <v>224</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="18" customFormat="1" ht="17">
+      <c r="A10" s="74" t="s">
+        <v>496</v>
+      </c>
+      <c r="B10" s="64"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="80"/>
+      <c r="E10" s="96" t="s">
+        <v>502</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="18" customFormat="1" ht="17">
+      <c r="A11" s="74" t="s">
+        <v>497</v>
+      </c>
+      <c r="B11" s="64"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="96" t="s">
+        <v>503</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="18" customFormat="1" ht="17">
+      <c r="A12" s="81" t="s">
+        <v>508</v>
+      </c>
+      <c r="B12" s="64"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="80"/>
+      <c r="E12" s="96" t="s">
+        <v>509</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="18" customFormat="1">
+      <c r="A13" s="81" t="s">
+        <v>511</v>
+      </c>
+      <c r="B13" s="64"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="96" t="s">
+        <v>512</v>
+      </c>
+      <c r="F13" s="23"/>
+    </row>
+    <row r="14" spans="1:6" s="18" customFormat="1">
+      <c r="A14" s="81" t="s">
+        <v>514</v>
+      </c>
+      <c r="B14" s="64"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="96" t="s">
+        <v>513</v>
+      </c>
+      <c r="F14" s="23"/>
+    </row>
+    <row r="15" spans="1:6" s="18" customFormat="1">
+      <c r="A15" s="203" t="s">
+        <v>515</v>
+      </c>
+      <c r="B15" s="99" t="s">
+        <v>516</v>
+      </c>
+      <c r="C15" s="100" t="s">
+        <v>524</v>
+      </c>
+      <c r="D15" s="100" t="s">
+        <v>525</v>
+      </c>
+      <c r="E15" s="205" t="s">
+        <v>526</v>
+      </c>
+      <c r="F15" s="70"/>
+    </row>
+    <row r="16" spans="1:6" s="18" customFormat="1">
+      <c r="A16" s="204"/>
+      <c r="B16" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="101" t="s">
-        <v>492</v>
-      </c>
-      <c r="D4" s="101" t="s">
-        <v>601</v>
-      </c>
-      <c r="E4" s="164"/>
-      <c r="F4" s="127"/>
-    </row>
-    <row r="5" spans="1:6" s="19" customFormat="1">
-      <c r="A5" s="158"/>
-      <c r="B5" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="C5" s="114" t="s">
-        <v>630</v>
-      </c>
-      <c r="D5" s="114" t="s">
-        <v>629</v>
-      </c>
-      <c r="E5" s="165"/>
-      <c r="F5" s="128"/>
-    </row>
-    <row r="6" spans="1:6" s="19" customFormat="1" ht="17">
-      <c r="A6" s="75" t="s">
-        <v>494</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="114" t="s">
-        <v>508</v>
-      </c>
-      <c r="E6" s="73" t="s">
-        <v>226</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="19" customFormat="1" ht="17">
-      <c r="A7" s="75" t="s">
-        <v>495</v>
-      </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="97" t="s">
-        <v>500</v>
-      </c>
-      <c r="F7" s="24" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="19" customFormat="1" ht="17">
-      <c r="A8" s="75" t="s">
-        <v>496</v>
-      </c>
-      <c r="B8" s="65"/>
-      <c r="C8" s="81"/>
-      <c r="D8" s="81"/>
-      <c r="E8" s="97" t="s">
-        <v>503</v>
-      </c>
-      <c r="F8" s="24" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="19" customFormat="1" ht="17">
-      <c r="A9" s="75" t="s">
-        <v>497</v>
-      </c>
-      <c r="B9" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="81"/>
-      <c r="D9" s="81" t="s">
-        <v>509</v>
-      </c>
-      <c r="E9" s="73" t="s">
-        <v>226</v>
-      </c>
-      <c r="F9" s="24" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="19" customFormat="1" ht="17">
-      <c r="A10" s="75" t="s">
-        <v>498</v>
-      </c>
-      <c r="B10" s="65"/>
-      <c r="C10" s="81"/>
-      <c r="D10" s="81"/>
-      <c r="E10" s="97" t="s">
-        <v>504</v>
-      </c>
-      <c r="F10" s="24" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="19" customFormat="1" ht="17">
-      <c r="A11" s="75" t="s">
-        <v>499</v>
-      </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="97" t="s">
-        <v>505</v>
-      </c>
-      <c r="F11" s="24" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="19" customFormat="1" ht="17">
-      <c r="A12" s="82" t="s">
-        <v>510</v>
-      </c>
-      <c r="B12" s="65"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="81"/>
-      <c r="E12" s="97" t="s">
-        <v>511</v>
-      </c>
-      <c r="F12" s="24" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="19" customFormat="1">
-      <c r="A13" s="82" t="s">
-        <v>513</v>
-      </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="81"/>
-      <c r="E13" s="97" t="s">
-        <v>514</v>
-      </c>
-      <c r="F13" s="24"/>
-    </row>
-    <row r="14" spans="1:6" s="19" customFormat="1">
-      <c r="A14" s="82" t="s">
-        <v>516</v>
-      </c>
-      <c r="B14" s="65"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="97" t="s">
-        <v>515</v>
-      </c>
-      <c r="F14" s="24"/>
-    </row>
-    <row r="15" spans="1:6" s="19" customFormat="1">
-      <c r="A15" s="204" t="s">
+      <c r="C16" s="16" t="s">
+        <v>522</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>523</v>
+      </c>
+      <c r="E16" s="206"/>
+      <c r="F16" s="22"/>
+    </row>
+    <row r="17" spans="1:6" s="18" customFormat="1">
+      <c r="A17" s="103" t="s">
+        <v>520</v>
+      </c>
+      <c r="B17" s="64"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="102" t="s">
+        <v>527</v>
+      </c>
+      <c r="F17" s="23"/>
+    </row>
+    <row r="18" spans="1:6" s="18" customFormat="1">
+      <c r="A18" s="103" t="s">
+        <v>519</v>
+      </c>
+      <c r="B18" s="64"/>
+      <c r="E18" s="88" t="s">
+        <v>528</v>
+      </c>
+      <c r="F18" s="23"/>
+    </row>
+    <row r="19" spans="1:6" s="18" customFormat="1">
+      <c r="A19" s="103" t="s">
+        <v>518</v>
+      </c>
+      <c r="B19" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>530</v>
+      </c>
+      <c r="F19" s="23"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="203" t="s">
         <v>517</v>
       </c>
-      <c r="B15" s="100" t="s">
-        <v>518</v>
-      </c>
-      <c r="C15" s="101" t="s">
-        <v>526</v>
-      </c>
-      <c r="D15" s="101" t="s">
-        <v>527</v>
-      </c>
-      <c r="E15" s="206" t="s">
-        <v>528</v>
-      </c>
-      <c r="F15" s="71"/>
-    </row>
-    <row r="16" spans="1:6" s="19" customFormat="1">
-      <c r="A16" s="205"/>
-      <c r="B16" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="16" t="s">
-        <v>524</v>
-      </c>
-      <c r="D16" s="45" t="s">
-        <v>525</v>
-      </c>
-      <c r="E16" s="207"/>
-      <c r="F16" s="23"/>
-    </row>
-    <row r="17" spans="1:6" s="19" customFormat="1">
-      <c r="A17" s="104" t="s">
-        <v>522</v>
-      </c>
-      <c r="B17" s="65"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="103" t="s">
+      <c r="B20" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="C20" t="s">
         <v>529</v>
       </c>
-      <c r="F17" s="24"/>
-    </row>
-    <row r="18" spans="1:6" s="19" customFormat="1">
-      <c r="A18" s="104" t="s">
+      <c r="E20" s="175" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="17">
+      <c r="A21" s="207"/>
+      <c r="B21" s="59" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="E21" s="176"/>
+      <c r="F21" s="6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="17">
+      <c r="A22" s="204"/>
+      <c r="B22" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="E22" s="177"/>
+      <c r="F22" s="6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="103" t="s">
         <v>521</v>
       </c>
-      <c r="B18" s="65"/>
-      <c r="E18" s="89" t="s">
-        <v>530</v>
-      </c>
-      <c r="F18" s="24"/>
-    </row>
-    <row r="19" spans="1:6" s="19" customFormat="1">
-      <c r="A19" s="104" t="s">
-        <v>520</v>
-      </c>
-      <c r="B19" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C19" s="19" t="s">
-        <v>466</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>532</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>532</v>
-      </c>
-      <c r="F19" s="24"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="204" t="s">
-        <v>519</v>
-      </c>
-      <c r="B20" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>531</v>
-      </c>
-      <c r="E20" s="177" t="s">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="17">
-      <c r="A21" s="208"/>
-      <c r="B21" s="60" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>470</v>
-      </c>
-      <c r="E21" s="178"/>
-      <c r="F21" s="6" t="s">
+      <c r="B23" s="18"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="18" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="17">
-      <c r="A22" s="205"/>
-      <c r="B22" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C22" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>471</v>
-      </c>
-      <c r="E22" s="179"/>
-      <c r="F22" s="6" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="104" t="s">
-        <v>523</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="92"/>
-      <c r="D23" s="98"/>
-      <c r="E23" s="19" t="s">
-        <v>535</v>
-      </c>
-      <c r="F23" s="24"/>
+      <c r="F23" s="23"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
-      <c r="D24" s="30"/>
+      <c r="D24" s="29"/>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="30"/>
+      <c r="D25" s="29"/>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="201"/>
+      <c r="A41" s="202"/>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="201"/>
+      <c r="A42" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -13470,249 +13648,249 @@
         <v>11</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="19">
-      <c r="A2" s="22" t="s">
-        <v>631</v>
+      <c r="A2" s="21" t="s">
+        <v>629</v>
       </c>
       <c r="D2" s="13"/>
-      <c r="E2" s="19" t="s">
-        <v>632</v>
+      <c r="E2" s="18" t="s">
+        <v>630</v>
       </c>
       <c r="F2" s="13"/>
     </row>
     <row r="3" spans="1:6" s="16" customFormat="1" ht="17">
-      <c r="A3" s="45" t="s">
-        <v>551</v>
+      <c r="A3" s="44" t="s">
+        <v>549</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>541</v>
+      </c>
+      <c r="E3" s="69" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" s="18" customFormat="1" ht="17">
+      <c r="A4" s="21" t="s">
+        <v>550</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>543</v>
       </c>
-      <c r="E3" s="70" t="s">
-        <v>226</v>
-      </c>
-      <c r="F3" s="23"/>
-    </row>
-    <row r="4" spans="1:6" s="19" customFormat="1" ht="17">
-      <c r="A4" s="22" t="s">
+      <c r="D4" s="23" t="s">
+        <v>544</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>542</v>
+      </c>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:6" s="16" customFormat="1" ht="17">
+      <c r="A5" s="104" t="s">
         <v>552</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="19" t="s">
+      <c r="B5" s="109" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="112" t="s">
+        <v>681</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>633</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>548</v>
+      </c>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" ht="51">
+      <c r="A6" s="106" t="s">
+        <v>551</v>
+      </c>
+      <c r="B6" s="77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="77" t="s">
+        <v>546</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>680</v>
+      </c>
+      <c r="E6" s="130" t="s">
+        <v>631</v>
+      </c>
+      <c r="F6" s="107" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="16" customFormat="1" ht="34">
+      <c r="A7" s="112" t="s">
+        <v>553</v>
+      </c>
+      <c r="B7" s="109" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="109" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="32" t="s">
         <v>545</v>
       </c>
-      <c r="D4" s="24" t="s">
-        <v>546</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>544</v>
-      </c>
-      <c r="F4" s="24"/>
-    </row>
-    <row r="5" spans="1:6" s="16" customFormat="1" ht="17">
-      <c r="A5" s="105" t="s">
+      <c r="F7" s="22" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17">
+      <c r="A8" s="183" t="s">
         <v>554</v>
       </c>
-      <c r="B5" s="110" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="113" t="s">
-        <v>683</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>635</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>550</v>
-      </c>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="1:6" ht="51">
-      <c r="A6" s="107" t="s">
-        <v>553</v>
-      </c>
-      <c r="B6" s="78" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="78" t="s">
-        <v>548</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>682</v>
-      </c>
-      <c r="E6" s="131" t="s">
-        <v>633</v>
-      </c>
-      <c r="F6" s="108" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="16" customFormat="1" ht="34">
-      <c r="A7" s="113" t="s">
+      <c r="B8" s="59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>443</v>
+      </c>
+      <c r="D8" t="s">
+        <v>444</v>
+      </c>
+      <c r="E8" s="168" t="s">
+        <v>224</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="173"/>
+      <c r="B9" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>445</v>
+      </c>
+      <c r="E9" s="169"/>
+    </row>
+    <row r="10" spans="1:6" ht="17">
+      <c r="A10" s="174"/>
+      <c r="B10" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="78" t="s">
+        <v>534</v>
+      </c>
+      <c r="E10" s="170"/>
+      <c r="F10" s="70" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="183" t="s">
         <v>555</v>
       </c>
-      <c r="B7" s="110" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="110" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="17">
-      <c r="A8" s="184" t="s">
+      <c r="B11" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="153" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="175" t="s">
         <v>556</v>
       </c>
-      <c r="B8" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>445</v>
-      </c>
-      <c r="D8" t="s">
-        <v>446</v>
-      </c>
-      <c r="E8" s="163" t="s">
-        <v>226</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="185"/>
-      <c r="B9" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="80" t="s">
-        <v>447</v>
-      </c>
-      <c r="E9" s="164"/>
-    </row>
-    <row r="10" spans="1:6" ht="17">
-      <c r="A10" s="186"/>
-      <c r="B10" s="100" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="79" t="s">
+    </row>
+    <row r="12" spans="1:6" ht="17">
+      <c r="A12" s="173"/>
+      <c r="B12" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="E12" s="167"/>
+      <c r="F12" s="176"/>
+    </row>
+    <row r="13" spans="1:6" ht="17">
+      <c r="A13" s="174"/>
+      <c r="B13" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="22" t="s">
         <v>536</v>
       </c>
-      <c r="E10" s="165"/>
-      <c r="F10" s="71" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="184" t="s">
-        <v>557</v>
-      </c>
-      <c r="B11" s="99" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" t="s">
-        <v>60</v>
-      </c>
-      <c r="E11" s="160" t="s">
-        <v>141</v>
-      </c>
-      <c r="F11" s="177" t="s">
+      <c r="E13" s="154"/>
+      <c r="F13" s="177"/>
+    </row>
+    <row r="14" spans="1:6" ht="38" customHeight="1">
+      <c r="A14" s="108" t="s">
         <v>558</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="17">
-      <c r="A12" s="185"/>
-      <c r="B12" s="100" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="E12" s="161"/>
-      <c r="F12" s="178"/>
-    </row>
-    <row r="13" spans="1:6" ht="17">
-      <c r="A13" s="186"/>
-      <c r="B13" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="E13" s="162"/>
-      <c r="F13" s="179"/>
-    </row>
-    <row r="14" spans="1:6" ht="38" customHeight="1">
-      <c r="A14" s="109" t="s">
-        <v>560</v>
-      </c>
-      <c r="B14" s="61"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="16"/>
       <c r="D14" s="16"/>
-      <c r="E14" s="24" t="s">
-        <v>559</v>
-      </c>
-      <c r="F14" s="23"/>
+      <c r="E14" s="23" t="s">
+        <v>557</v>
+      </c>
+      <c r="F14" s="22"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="209" t="s">
-        <v>639</v>
-      </c>
-      <c r="B15" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="C15" s="20" t="s">
+      <c r="A15" s="208" t="s">
+        <v>637</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>634</v>
+      </c>
+      <c r="E15" s="168" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17">
+      <c r="A16" s="209"/>
+      <c r="B16" s="63" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="44" t="s">
+        <v>635</v>
+      </c>
+      <c r="D16" s="22" t="s">
         <v>636</v>
       </c>
-      <c r="E15" s="163" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17">
-      <c r="A16" s="210"/>
-      <c r="B16" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" s="45" t="s">
-        <v>637</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>638</v>
-      </c>
-      <c r="E16" s="170"/>
-      <c r="F16" s="23"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -13759,162 +13937,162 @@
         <v>11</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="45" t="s">
-        <v>561</v>
+      <c r="A2" s="44" t="s">
+        <v>559</v>
       </c>
       <c r="B2" t="s">
         <v>36</v>
       </c>
       <c r="C2" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="16" customFormat="1">
+      <c r="A3" s="44" t="s">
+        <v>561</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="85" t="s">
         <v>562</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="16" customFormat="1">
-      <c r="A3" s="45" t="s">
-        <v>563</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="86" t="s">
-        <v>564</v>
       </c>
       <c r="F3" s="16" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="17">
-      <c r="A4" s="184" t="s">
-        <v>579</v>
+      <c r="A4" s="183" t="s">
+        <v>577</v>
       </c>
       <c r="B4" t="s">
         <v>34</v>
       </c>
       <c r="C4" t="s">
+        <v>563</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="E4" s="153" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17">
+      <c r="A5" s="173"/>
+      <c r="B5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" t="s">
         <v>565</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D5" s="6" t="s">
         <v>566</v>
       </c>
-      <c r="E4" s="160" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="17">
-      <c r="A5" s="185"/>
-      <c r="B5" t="s">
-        <v>163</v>
-      </c>
-      <c r="C5" t="s">
-        <v>567</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="E5" s="161"/>
+      <c r="E5" s="167"/>
     </row>
     <row r="6" spans="1:6" ht="17" customHeight="1">
-      <c r="A6" s="185"/>
+      <c r="A6" s="173"/>
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="E6" s="161"/>
+        <v>568</v>
+      </c>
+      <c r="E6" s="167"/>
     </row>
     <row r="7" spans="1:6" ht="17">
-      <c r="A7" s="186"/>
+      <c r="A7" s="174"/>
       <c r="B7" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C7" s="16" t="s">
+        <v>570</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>569</v>
+      </c>
+      <c r="E7" s="154"/>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:6" ht="17">
+      <c r="A8" s="153" t="s">
+        <v>576</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" t="s">
+        <v>565</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="E8" s="175" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17">
+      <c r="A9" s="167"/>
+      <c r="B9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>574</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>575</v>
+      </c>
+      <c r="E9" s="210"/>
+    </row>
+    <row r="10" spans="1:6" ht="17">
+      <c r="A10" s="154"/>
+      <c r="B10" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="44" t="s">
         <v>572</v>
       </c>
-      <c r="D7" s="23" t="s">
-        <v>571</v>
-      </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8" spans="1:6" ht="17">
-      <c r="A8" s="160" t="s">
+      <c r="D10" s="22" t="s">
+        <v>573</v>
+      </c>
+      <c r="E10" s="177"/>
+      <c r="F10" s="22"/>
+    </row>
+    <row r="11" spans="1:6" s="16" customFormat="1" ht="34">
+      <c r="A11" s="73" t="s">
+        <v>580</v>
+      </c>
+      <c r="B11" s="73" t="s">
+        <v>312</v>
+      </c>
+      <c r="C11" s="73" t="s">
         <v>578</v>
       </c>
-      <c r="B8" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="C8" t="s">
-        <v>567</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>568</v>
-      </c>
-      <c r="E8" s="177" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="17">
-      <c r="A9" s="161"/>
-      <c r="B9" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" t="s">
-        <v>576</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="E9" s="211"/>
-    </row>
-    <row r="10" spans="1:6" ht="17">
-      <c r="A10" s="162"/>
-      <c r="B10" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" s="45" t="s">
-        <v>574</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>575</v>
-      </c>
-      <c r="E10" s="179"/>
-      <c r="F10" s="23"/>
-    </row>
-    <row r="11" spans="1:6" s="16" customFormat="1" ht="34">
-      <c r="A11" s="74" t="s">
-        <v>582</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>314</v>
-      </c>
-      <c r="C11" s="74" t="s">
-        <v>580</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>581</v>
-      </c>
-      <c r="E11" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="F11" s="23"/>
+      <c r="D11" s="22" t="s">
+        <v>579</v>
+      </c>
+      <c r="E11" s="72" t="s">
+        <v>225</v>
+      </c>
+      <c r="F11" s="22"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="201"/>
+      <c r="A15" s="202"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="201"/>
+      <c r="A16" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -13959,10 +14137,10 @@
         <v>11</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>9</v>
@@ -13970,109 +14148,109 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="16" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
-      <c r="D2" s="23"/>
+      <c r="D2" s="22"/>
       <c r="E2" s="16" t="s">
-        <v>585</v>
-      </c>
-      <c r="F2" s="23"/>
+        <v>583</v>
+      </c>
+      <c r="F2" s="22"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="184" t="s">
-        <v>586</v>
+      <c r="A3" s="183" t="s">
+        <v>584</v>
       </c>
       <c r="B3" t="s">
         <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>681</v>
-      </c>
-      <c r="E3" s="163" t="s">
-        <v>226</v>
+        <v>679</v>
+      </c>
+      <c r="E3" s="168" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="186"/>
+      <c r="A4" s="174"/>
       <c r="B4" s="16" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>588</v>
-      </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="165"/>
-      <c r="F4" s="23"/>
+        <v>586</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="170"/>
+      <c r="F4" s="22"/>
     </row>
     <row r="5" spans="1:6" ht="17">
-      <c r="A5" s="160" t="s">
-        <v>587</v>
+      <c r="A5" s="153" t="s">
+        <v>585</v>
       </c>
       <c r="B5" t="s">
         <v>36</v>
       </c>
       <c r="C5" t="s">
+        <v>588</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>589</v>
+      </c>
+      <c r="E5" s="153" t="s">
         <v>590</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="F5" s="175" t="s">
         <v>591</v>
       </c>
-      <c r="E5" s="160" t="s">
-        <v>592</v>
-      </c>
-      <c r="F5" s="177" t="s">
-        <v>593</v>
-      </c>
     </row>
     <row r="6" spans="1:6" ht="34">
-      <c r="A6" s="162"/>
+      <c r="A6" s="154"/>
       <c r="B6" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="45" t="s">
+      <c r="C6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="33" t="s">
-        <v>589</v>
-      </c>
-      <c r="E6" s="162"/>
-      <c r="F6" s="179"/>
+      <c r="D6" s="32" t="s">
+        <v>587</v>
+      </c>
+      <c r="E6" s="154"/>
+      <c r="F6" s="177"/>
     </row>
     <row r="7" spans="1:6" s="16" customFormat="1" ht="17">
       <c r="A7" s="16" t="s">
-        <v>596</v>
-      </c>
-      <c r="B7" s="45" t="s">
+        <v>594</v>
+      </c>
+      <c r="B7" s="44" t="s">
         <v>31</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>118</v>
+        <v>43</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>116</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>594</v>
-      </c>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8" spans="1:6" s="19" customFormat="1">
-      <c r="A8" s="19" t="s">
-        <v>597</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="19" t="s">
+        <v>592</v>
+      </c>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:6" s="18" customFormat="1">
+      <c r="A8" s="18" t="s">
         <v>595</v>
       </c>
-      <c r="F8" s="24"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="18" t="s">
+        <v>593</v>
+      </c>
+      <c r="F8" s="23"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="201"/>
+      <c r="A16" s="202"/>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="201"/>
+      <c r="A17" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -14118,148 +14296,148 @@
         <v>11</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F1" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="19">
-      <c r="A2" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="B2" s="99" t="s">
+      <c r="A2" s="18" t="s">
+        <v>487</v>
+      </c>
+      <c r="B2" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>598</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>599</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" s="102"/>
-    </row>
-    <row r="3" spans="1:6" s="19" customFormat="1" ht="17" customHeight="1">
-      <c r="A3" s="94" t="s">
-        <v>606</v>
-      </c>
-      <c r="B3" s="65" t="s">
+      <c r="C2" s="17" t="s">
+        <v>596</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>597</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>224</v>
+      </c>
+      <c r="F2" s="101"/>
+    </row>
+    <row r="3" spans="1:6" s="18" customFormat="1" ht="17" customHeight="1">
+      <c r="A3" s="93" t="s">
+        <v>604</v>
+      </c>
+      <c r="B3" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="80" t="s">
+        <v>600</v>
+      </c>
+      <c r="D3" s="80"/>
+      <c r="E3" s="115" t="s">
+        <v>224</v>
+      </c>
+      <c r="F3" s="23"/>
+    </row>
+    <row r="4" spans="1:6" s="15" customFormat="1" ht="17" customHeight="1">
+      <c r="A4" s="131" t="s">
+        <v>605</v>
+      </c>
+      <c r="B4" s="64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="18" t="s">
         <v>602</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="116" t="s">
-        <v>226</v>
-      </c>
-      <c r="F3" s="24"/>
-    </row>
-    <row r="4" spans="1:6" s="15" customFormat="1" ht="17" customHeight="1">
-      <c r="A4" s="132" t="s">
-        <v>607</v>
-      </c>
-      <c r="B4" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>604</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>603</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>227</v>
-      </c>
-      <c r="F4" s="24"/>
+      <c r="D4" s="23" t="s">
+        <v>601</v>
+      </c>
+      <c r="E4" s="69" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" s="16" customFormat="1">
       <c r="A5" s="16" t="s">
+        <v>606</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="16" t="s">
+        <v>603</v>
+      </c>
+      <c r="F5" s="22"/>
+    </row>
+    <row r="6" spans="1:6" s="18" customFormat="1">
+      <c r="A6" s="116" t="s">
+        <v>607</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>609</v>
+      </c>
+      <c r="F6" s="23"/>
+    </row>
+    <row r="7" spans="1:6" s="16" customFormat="1">
+      <c r="A7" s="78" t="s">
         <v>608</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="16" t="s">
-        <v>605</v>
-      </c>
-      <c r="F5" s="23"/>
-    </row>
-    <row r="6" spans="1:6" s="19" customFormat="1">
-      <c r="A6" s="117" t="s">
-        <v>609</v>
-      </c>
-      <c r="B6" s="63" t="s">
+      <c r="B7" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="D6" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="19" t="s">
+      <c r="C7" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>610</v>
+      </c>
+      <c r="F7" s="22"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="197" t="s">
         <v>611</v>
-      </c>
-      <c r="F6" s="24"/>
-    </row>
-    <row r="7" spans="1:6" s="16" customFormat="1">
-      <c r="A7" s="79" t="s">
-        <v>610</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>612</v>
-      </c>
-      <c r="F7" s="23"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="198" t="s">
-        <v>613</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C8" t="s">
+        <v>612</v>
+      </c>
+      <c r="D8"/>
+      <c r="E8" s="153" t="s">
+        <v>615</v>
+      </c>
+      <c r="F8" s="153" t="s">
         <v>614</v>
       </c>
-      <c r="D8"/>
-      <c r="E8" s="160" t="s">
-        <v>617</v>
-      </c>
-      <c r="F8" s="160" t="s">
+    </row>
+    <row r="9" spans="1:6" s="5" customFormat="1">
+      <c r="A9" s="198"/>
+      <c r="B9" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="34" t="s">
+        <v>613</v>
+      </c>
+      <c r="E9" s="154"/>
+      <c r="F9" s="154"/>
+    </row>
+    <row r="10" spans="1:6" s="5" customFormat="1">
+      <c r="A10" s="93" t="s">
         <v>616</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="5" customFormat="1">
-      <c r="A9" s="199"/>
-      <c r="B9" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="35" t="s">
-        <v>615</v>
-      </c>
-      <c r="E9" s="162"/>
-      <c r="F9" s="162"/>
-    </row>
-    <row r="10" spans="1:6" s="5" customFormat="1">
-      <c r="A10" s="94" t="s">
-        <v>618</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>31</v>
@@ -14268,141 +14446,141 @@
         <v>32</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E10" s="16" t="s">
+        <v>617</v>
+      </c>
+      <c r="F10" s="77" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="18" customFormat="1">
+      <c r="A11" s="103" t="s">
+        <v>518</v>
+      </c>
+      <c r="B11" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" s="18" t="s">
         <v>619</v>
       </c>
-      <c r="F10" s="78" t="s">
+      <c r="E11" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="F11" s="76" t="s">
         <v>620</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="19" customFormat="1">
-      <c r="A11" s="104" t="s">
-        <v>520</v>
-      </c>
-      <c r="B11" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="D11" s="19" t="s">
-        <v>621</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="F11" s="77" t="s">
+    <row r="12" spans="1:6" ht="17">
+      <c r="A12" s="183" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" ht="17">
-      <c r="A12" s="184" t="s">
-        <v>624</v>
-      </c>
-      <c r="B12" s="99" t="s">
+      <c r="B12" s="98" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
+        <v>443</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>444</v>
+      </c>
+      <c r="E12" s="168" t="s">
+        <v>224</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17">
+      <c r="A13" s="173"/>
+      <c r="B13" s="59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D13" s="79" t="s">
         <v>445</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="E13" s="169"/>
+      <c r="F13" s="6" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17">
+      <c r="A14" s="174"/>
+      <c r="B14" s="99" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="78" t="s">
+        <v>534</v>
+      </c>
+      <c r="E14" s="170"/>
+      <c r="F14" s="70" t="s">
         <v>446</v>
       </c>
-      <c r="E12" s="163" t="s">
-        <v>226</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="17">
-      <c r="A13" s="185"/>
-      <c r="B13" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="80" t="s">
-        <v>447</v>
-      </c>
-      <c r="E13" s="164"/>
-      <c r="F13" s="6" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="17">
-      <c r="A14" s="186"/>
-      <c r="B14" s="100" t="s">
-        <v>40</v>
-      </c>
-      <c r="C14" s="16" t="s">
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="183" t="s">
+        <v>623</v>
+      </c>
+      <c r="B15" s="98" t="s">
         <v>55</v>
       </c>
-      <c r="D14" s="79" t="s">
+      <c r="C15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="153" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="175" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17">
+      <c r="A16" s="173"/>
+      <c r="B16" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="E16" s="167"/>
+      <c r="F16" s="176"/>
+    </row>
+    <row r="17" spans="1:6" ht="17">
+      <c r="A17" s="174"/>
+      <c r="B17" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>536</v>
       </c>
-      <c r="E14" s="165"/>
-      <c r="F14" s="71" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="184" t="s">
-        <v>625</v>
-      </c>
-      <c r="B15" s="99" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="160" t="s">
-        <v>141</v>
-      </c>
-      <c r="F15" s="177" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="17">
-      <c r="A16" s="185"/>
-      <c r="B16" s="100" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="E16" s="161"/>
-      <c r="F16" s="178"/>
-    </row>
-    <row r="17" spans="1:6" ht="17">
-      <c r="A17" s="186"/>
-      <c r="B17" s="61" t="s">
-        <v>59</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>538</v>
-      </c>
-      <c r="E17" s="162"/>
-      <c r="F17" s="179"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="177"/>
     </row>
     <row r="18" spans="1:6" s="16" customFormat="1" ht="34">
       <c r="A18" s="16" t="s">
-        <v>623</v>
-      </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24" t="s">
-        <v>627</v>
-      </c>
-      <c r="F18" s="23"/>
+        <v>621</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="23" t="s">
+        <v>625</v>
+      </c>
+      <c r="F18" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="8">
